--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,26 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.1 第一周 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2017.9.6 第二周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +62,6 @@
   </si>
   <si>
     <t>陈俊彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用磨刀原型设计工具完成时尚轻纺APP首页设计，自己思考及参考相应的资料设计首页面，然后小组一起讨论，统一意见，最终完成一个统一的有自己风格的首页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,12 +85,274 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>龙荣盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李志华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石婉霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用磨刀原型设计工具完成时尚轻纺APP首页设计，自己思考及参考相应的资料设计首页面，然后小组一起讨论，统一意见，最终完成一个统一的有自己风格的首页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成账户管理功能模块中的设计师注册和普通用户注册规约描述，包括设计师注册和普通用户注册的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块中的浏览设计师的规约描述，包括浏览设计师功能的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块中的浏览设计师作品的规约描述，包括浏览设计师作品功能的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块中的浏览布料辅料信息的规约描述，包括浏览布料辅料信息的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师注册页面设计，普通用户注册页面设计。设计师注册规约和普通用户注册规约的描述不够完整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装管理模块中的浏览品牌服装信息的规约描述，包括浏览品牌服装信息的界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成品牌服装管理模块中的浏览品牌服装信息的界面设计，浏览品牌服装信息的规约描述未完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成布料服装管理模块中的浏览布料信息的界面设计，浏览布料辅料信息的规约描述未完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况良好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用例规约描述和界面设计一定要根据项目需求规格说明书进行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块中的浏览布料辅料详细信息的规约描述，包括其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装管理模块中的浏览品牌服装详细信息的规约描述，包括其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块中的浏览设计师作品详细的规约描述，包括其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队要多协作，多讨论多提出意见。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合小组成员前面完成的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块中的浏览设计师详细的规约描述，包括其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块中的信息评论、布料辅料点赞、收藏、浏览供应商的规约描述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成账户管理功能模块中的设计师登录、普通用户登录和忘记密码规约描述，包括界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成资讯信息管理模块中的浏览资讯信息、评论资讯信息的规约描述，及其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块中的发布作品、专辑管理的规约描述，包括其界面设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.11 第三周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致完成，不够完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面设计已完成，规约描述未写完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五前尽快完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：团队之间多交流，多参考好的界面设计，另一个把握好时间安排。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成账户管理模块的用例描述规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理模块的用例描述规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块的用例描述规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成资讯信息管理模块的用例描述规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装管理模块的用例描述规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容较多，今天之内完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容较多，明天上午前完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理小组成员完成的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善和修改前面完成的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：有很多细节方面的问题没做好，还要继续修改和完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善和修改用例规约描述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合小组的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +417,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,29 +448,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -564,35 +852,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -608,65 +896,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -682,125 +970,601 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="19">
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完善和修改用例规约描述。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +341,18 @@
   </si>
   <si>
     <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：整合的过程中发现问题比较多，有很多细节的东西还要改善。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +456,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,26 +498,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -875,12 +886,12 @@
       <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -900,10 +911,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -912,32 +923,32 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -949,12 +960,12 @@
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1045,12 +1056,12 @@
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1147,12 +1158,12 @@
       <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1251,12 +1262,12 @@
       <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1363,12 +1374,12 @@
       <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1400,7 +1411,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1412,7 +1423,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1433,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1432,7 +1443,7 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
@@ -1459,12 +1470,12 @@
       <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1485,48 +1496,58 @@
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="14"/>
+      <c r="B61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -1546,12 +1567,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -1559,12 +1580,12 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,26 @@
   </si>
   <si>
     <t>总结：整合的过程中发现问题比较多，有很多细节的东西还要改善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis框架学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +476,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,12 +521,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -518,9 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -878,20 +904,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -911,10 +937,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -923,49 +949,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1048,20 +1074,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1138,32 +1164,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1242,32 +1268,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1354,32 +1380,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1411,7 +1437,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1423,7 +1449,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1433,7 +1459,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1443,39 +1469,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1507,7 +1533,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1519,7 +1545,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1529,7 +1555,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1539,40 +1565,134 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
+  <mergeCells count="22">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -1580,12 +1700,17 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,30 @@
   </si>
   <si>
     <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理模块相关数据库表初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品管理模块相关数据库表初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理模块相关数据库表初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料管理模块相关数据库表初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装管理模块相关数据库表初步设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +500,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,26 +551,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -889,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -912,12 +939,12 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -937,10 +964,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -949,32 +976,32 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -986,12 +1013,12 @@
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1082,12 +1109,12 @@
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1184,12 +1211,12 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1288,12 +1315,12 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1400,12 +1427,12 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1437,7 +1464,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1449,7 +1476,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1486,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1469,7 +1496,7 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
@@ -1496,12 +1523,12 @@
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1533,7 +1560,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1545,7 +1572,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1555,7 +1582,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1565,7 +1592,7 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
@@ -1592,12 +1619,12 @@
       <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1629,7 +1656,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="25" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1641,7 +1668,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1651,7 +1678,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1661,7 +1688,7 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
@@ -1687,8 +1714,113 @@
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
     <mergeCell ref="A18:D18"/>
@@ -1700,17 +1832,6 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,38 @@
   </si>
   <si>
     <t>服装管理模块相关数据库表初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +532,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +586,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,6 +598,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,9 +609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -931,20 +966,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -964,10 +999,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -976,49 +1011,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1101,20 +1136,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1191,32 +1226,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1295,32 +1330,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1407,32 +1442,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1464,7 +1499,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1476,7 +1511,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1486,7 +1521,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1496,39 +1531,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1560,7 +1595,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1572,7 +1607,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1582,7 +1617,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="25"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1592,39 +1627,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1656,7 +1691,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1668,7 +1703,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1678,7 +1713,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="25"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1688,39 +1723,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="25"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1743,7 +1778,9 @@
       <c r="B80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1753,7 +1790,9 @@
       <c r="B81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1763,7 +1802,9 @@
       <c r="B82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="18"/>
+      <c r="C82" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1773,7 +1814,9 @@
       <c r="B83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="18"/>
+      <c r="C83" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -1783,44 +1826,127 @@
       <c r="B84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="18"/>
+      <c r="C84" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
+  <mergeCells count="26">
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
     <mergeCell ref="A18:D18"/>
@@ -1832,6 +1958,19 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,14 @@
   </si>
   <si>
     <t>服装管理模块相关数据库表修改和完善，学习Hbuilder的使用教程，（包括新建项目和创建HTML页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库部分已修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +540,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,12 +603,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,6 +620,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -953,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -999,10 +1010,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1011,7 +1022,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="27"/>
       <c r="D5" s="1"/>
     </row>
@@ -1019,7 +1030,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="27"/>
       <c r="D6" s="1"/>
     </row>
@@ -1027,7 +1038,7 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="27"/>
       <c r="D7" s="1"/>
     </row>
@@ -1035,7 +1046,7 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="27"/>
       <c r="D8" s="1"/>
     </row>
@@ -1226,24 +1237,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -1330,24 +1341,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
@@ -1442,24 +1453,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -1499,7 +1510,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1511,7 +1522,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1532,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1531,31 +1542,31 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
@@ -1595,7 +1606,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1607,7 +1618,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1617,7 +1628,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1627,31 +1638,31 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -1691,7 +1702,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1703,7 +1714,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1713,7 +1724,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1723,31 +1734,31 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
@@ -1832,24 +1843,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
@@ -1880,7 +1891,9 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="19"/>
+      <c r="C90" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="D90" s="19"/>
     </row>
     <row r="91" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1890,7 +1903,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,7 +1913,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="19"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1910,7 +1923,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="19"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1920,44 +1933,38 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="19"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+    </row>
+    <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
@@ -1971,6 +1978,13 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="100">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,26 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Hbuilder完成一个启动页的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频学习混合式开发app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品管理中列表浏览的一个Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一个下拉选项框的Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +560,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,32 +617,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -962,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90:C94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -985,12 +1008,12 @@
       <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1010,10 +1033,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1022,32 +1045,32 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -1059,12 +1082,12 @@
       <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1155,12 +1178,12 @@
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1237,32 +1260,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1341,32 +1364,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1453,32 +1476,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1510,7 +1533,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1522,7 +1545,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1532,7 +1555,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1542,39 +1565,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1606,7 +1629,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1618,7 +1641,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1628,7 +1651,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1638,39 +1661,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1702,7 +1725,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1714,7 +1737,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1724,7 +1747,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1734,39 +1757,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1843,32 +1866,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -1891,7 +1914,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -1903,7 +1926,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1913,7 +1936,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="22"/>
+      <c r="C92" s="27"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1923,7 +1946,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="22"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1933,51 +1956,138 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="22"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A85:D87"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:D9"/>
@@ -1985,6 +2095,13 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,27 @@
   </si>
   <si>
     <t>完成一个下拉选项框的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接下来的假期比较长，每个人都要利用放假的时间，进行相应的学习，针对自己薄弱的技术进行相应的加强，以能够更好的更有效率的进行开发，同时在开发过程中可能出现的难点要及时提出来，大家进行讨论。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +581,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,6 +641,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,6 +656,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,14 +668,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -988,7 +1012,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="A98" sqref="A98:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1000,20 +1024,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1033,10 +1057,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1045,49 +1069,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1170,20 +1194,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1260,32 +1284,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1364,32 +1388,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1476,32 +1500,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1533,7 +1557,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1545,7 +1569,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1555,7 +1579,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="27"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1565,39 +1589,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="27"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1629,7 +1653,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1641,7 +1665,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1651,7 +1675,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1661,39 +1685,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1725,7 +1749,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1737,7 +1761,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1747,7 +1771,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="27"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1757,39 +1781,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="27"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1866,32 +1890,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -1914,7 +1938,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -1926,7 +1950,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="27"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1936,7 +1960,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="27"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1946,7 +1970,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1956,36 +1980,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="27"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2008,7 +2032,9 @@
       <c r="B100" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2018,7 +2044,9 @@
       <c r="B101" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2028,7 +2056,9 @@
       <c r="B102" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="5"/>
+      <c r="C102" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2038,7 +2068,9 @@
       <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2048,44 +2080,33 @@
       <c r="B104" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="C104" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
+      <c r="A105" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A105:D107"/>
     <mergeCell ref="A1:D1"/>
@@ -2102,6 +2123,19 @@
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,6 +478,34 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第八周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成web接口设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌服装模块获取所有品牌服装信息的一个接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理模块获取所有资讯信息的一个接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品管理模块获取所有设计师作品的一个接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合小组前面完成的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +609,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,6 +634,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1009,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1024,20 +1055,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1057,10 +1088,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1069,49 +1100,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1194,20 +1225,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1284,32 +1315,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1388,32 +1419,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1500,32 +1531,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1557,7 +1588,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1569,7 +1600,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1579,7 +1610,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1589,39 +1620,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1653,7 +1684,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1665,7 +1696,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1675,7 +1706,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1685,39 +1716,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1749,7 +1780,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1761,7 +1792,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1802,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1781,39 +1812,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1890,32 +1921,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -1938,7 +1969,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -1950,7 +1981,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="22"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1960,7 +1991,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="22"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1970,7 +2001,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="22"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1980,36 +2011,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="22"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2086,27 +2117,121 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A105:D107"/>
     <mergeCell ref="A1:D1"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌服装模块获取所有品牌服装信息的一个接口的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,6 +502,18 @@
   </si>
   <si>
     <t>整合小组前面完成的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对于一些接口写的不够完善或者考虑不周的地方进行了修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,32 +683,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1043,7 +1051,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="A116" sqref="A116:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1055,20 +1063,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1088,10 +1096,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1100,49 +1108,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1225,20 +1233,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1315,32 +1323,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1419,32 +1427,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1531,32 +1539,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1588,7 +1596,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1600,7 +1608,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1610,7 +1618,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1620,39 +1628,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1684,7 +1692,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1696,7 +1704,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1706,7 +1714,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1716,39 +1724,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1780,7 +1788,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1792,7 +1800,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1802,7 +1810,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1812,39 +1820,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1921,32 +1929,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -1969,7 +1977,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -1981,7 +1989,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="23"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1991,7 +1999,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="23"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,7 +2009,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="23"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2011,36 +2019,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2117,32 +2125,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2163,9 +2171,11 @@
         <v>6</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="22"/>
       <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -2173,9 +2183,11 @@
         <v>7</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="D112" s="22"/>
     </row>
     <row r="113" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -2183,9 +2195,11 @@
         <v>8</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2195,7 +2209,9 @@
       <c r="B114" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="22"/>
+      <c r="C114" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="D114" s="22"/>
     </row>
     <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -2203,33 +2219,50 @@
         <v>10</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C115" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
+      <c r="A116" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
@@ -2246,21 +2279,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,34 @@
   </si>
   <si>
     <t>总结：对于一些接口写的不够完善或者考虑不周的地方进行了修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善账户管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善作品管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善资讯管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善布料辅料管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善品牌服装管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +645,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,6 +711,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,7 +724,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,14 +738,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1048,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:D118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1063,20 +1094,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1096,10 +1127,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1108,49 +1139,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1233,20 +1264,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1323,32 +1354,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1427,32 +1458,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1539,32 +1570,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1596,7 +1627,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1608,7 +1639,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1618,7 +1649,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1628,39 +1659,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1692,7 +1723,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1704,7 +1735,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1714,7 +1745,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1724,39 +1755,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="29"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1788,7 +1819,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="28" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1800,7 +1831,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="29"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1810,7 +1841,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="29"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1820,39 +1851,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="29"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1929,32 +1960,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -1977,7 +2008,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -1989,7 +2020,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="29"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -1999,7 +2030,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="29"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2009,7 +2040,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="29"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2019,36 +2050,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="29"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2125,32 +2156,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2227,42 +2258,121 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+    </row>
+    <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+    </row>
+    <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
+  <mergeCells count="33">
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
@@ -2279,6 +2389,21 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="120">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,35 +513,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2017.10.18 第八周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善账户管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善作品管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善资讯管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善布料辅料管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改和完善品牌服装管理模块的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续整合小组成员前面做的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：对于一些接口写的不够完善或者考虑不周的地方进行了修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.18 第八周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改和完善账户管理模块的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改和完善作品管理模块的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改和完善资讯管理模块的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改和完善布料辅料管理模块的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改和完善品牌服装管理模块的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
+    <t>总结：在这个星期内对于一些接口写的不够完善或者考虑不周的地方进行了修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,31 +723,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1081,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1094,20 +1102,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1127,10 +1135,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1139,49 +1147,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1264,20 +1272,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1354,32 +1362,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1458,32 +1466,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1570,32 +1578,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1627,7 +1635,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1639,7 +1647,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="28"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1649,7 +1657,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1659,39 +1667,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1723,7 +1731,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1735,7 +1743,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1745,7 +1753,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1755,39 +1763,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1819,7 +1827,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1831,7 +1839,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1841,7 +1849,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1851,39 +1859,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1960,32 +1968,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2008,7 +2016,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2020,7 +2028,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="28"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2030,7 +2038,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="28"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2040,7 +2048,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="28"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2050,36 +2058,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="28"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2156,32 +2164,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2258,32 +2266,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2304,19 +2312,25 @@
         <v>6</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="D123" s="23"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2324,9 +2338,11 @@
         <v>8</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="D124" s="23"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2334,9 +2350,11 @@
         <v>9</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="D125" s="23"/>
     </row>
     <row r="126" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2344,51 +2362,35 @@
         <v>10</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C126" s="23"/>
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="A127" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -2404,6 +2406,24 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,118 @@
   </si>
   <si>
     <t>总结：在这个星期内对于一些接口写的不够完善或者考虑不周的地方进行了修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理模块UserController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品管理WorkController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑管理中AlumnController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料辅料管理模块界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌服装管理模块中的BrandClothController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成用户管理模块UserController接口的实现，并且进行登录界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成作品管理WorkController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成专辑管理中AlumnController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料管理模块界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装管理模块中的BrandClothController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面和注册界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料辅料管理模块界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成专辑管理中AlumnController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品管理WorkController接口的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌服装管理模块界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台设计师注册和普通用户注册的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台前端想买模块的增删改查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级完成布料辅料的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前端服装设计详情的界面与css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师列表和详细信息查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -678,6 +790,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1087,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:D129"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1102,20 +1229,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1135,10 +1262,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1147,49 +1274,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1272,20 +1399,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1362,32 +1489,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1466,32 +1593,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1578,32 +1705,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1635,7 +1762,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1647,7 +1774,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1657,7 +1784,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="30"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1667,39 +1794,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1731,7 +1858,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1743,7 +1870,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1753,7 +1880,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1763,39 +1890,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1827,7 +1954,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1839,7 +1966,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1849,7 +1976,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1859,39 +1986,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1968,32 +2095,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2016,7 +2143,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="35" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2028,7 +2155,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2038,7 +2165,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="30"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2048,7 +2175,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="30"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2058,36 +2185,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="30"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2164,32 +2291,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2266,32 +2393,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2370,27 +2497,529 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+    </row>
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" s="24"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" s="24"/>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="24"/>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" s="24"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+    </row>
+    <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="24"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="24"/>
+    </row>
+    <row r="146" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="24"/>
+    </row>
+    <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D147" s="24"/>
+    </row>
+    <row r="148" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="24"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="31"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="31"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+    </row>
+    <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" s="26"/>
+    </row>
+    <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="26"/>
+    </row>
+    <row r="159" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="26"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="31"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+    </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D166" s="27"/>
+    </row>
+    <row r="167" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D167" s="27"/>
+    </row>
+    <row r="168" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D168" s="27"/>
+    </row>
+    <row r="169" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D169" s="27"/>
+    </row>
+    <row r="170" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D170" s="27"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+    </row>
+    <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+    </row>
+    <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+    </row>
+    <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="31"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="31"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="43">
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -2424,6 +3053,16 @@
     <mergeCell ref="A116:D118"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A171:D173"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="157">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,42 @@
   </si>
   <si>
     <t>完成设计师列表和详细信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成布料辅料的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成前端服装设计详情的界面与css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台设计师信息修改和普通用户信息修改的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品详细详细页面的信息的内容的查询，点赞和收藏功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成根据设计师查询作品的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +801,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -849,6 +885,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,7 +898,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -867,14 +912,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1214,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1229,20 +1268,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1262,10 +1301,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1274,49 +1313,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1399,20 +1438,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1489,32 +1528,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1593,32 +1632,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1705,32 +1744,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1762,7 +1801,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1774,7 +1813,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1784,7 +1823,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1794,39 +1833,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1858,7 +1897,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1870,7 +1909,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1880,7 +1919,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1890,39 +1929,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="35"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -1954,7 +1993,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="34" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -1966,7 +2005,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="35"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +2015,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="35"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -1986,39 +2025,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="35"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2095,32 +2134,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2143,7 +2182,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2155,7 +2194,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="35"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2165,7 +2204,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="35"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2175,7 +2214,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="35"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2185,36 +2224,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="35"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2291,32 +2330,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2393,32 +2432,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2497,32 +2536,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2601,32 +2640,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2703,32 +2742,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="31"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="31"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2805,32 +2844,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="31" t="s">
+      <c r="A160" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="31"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="31"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2907,32 +2946,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="31"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -2955,7 +2994,9 @@
       <c r="B177" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C177" s="28"/>
+      <c r="C177" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="D177" s="28"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2965,7 +3006,9 @@
       <c r="B178" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C178" s="28"/>
+      <c r="C178" s="28" t="s">
+        <v>152</v>
+      </c>
       <c r="D178" s="28"/>
     </row>
     <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2975,7 +3018,9 @@
       <c r="B179" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C179" s="28"/>
+      <c r="C179" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="D179" s="28"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2985,7 +3030,9 @@
       <c r="B180" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C180" s="28"/>
+      <c r="C180" s="28" t="s">
+        <v>149</v>
+      </c>
       <c r="D180" s="28"/>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2995,31 +3042,155 @@
       <c r="B181" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C181" s="28"/>
+      <c r="C181" s="28" t="s">
+        <v>149</v>
+      </c>
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="31"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="31"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+    </row>
+    <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+    </row>
+    <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+    </row>
+    <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+    </row>
+    <row r="192" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="30"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3035,34 +3206,6 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A171:D173"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="165">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,38 @@
   </si>
   <si>
     <t>完成根据设计师查询作品的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成后台设计师信息修改和普通用户信息修改的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品评论和查询评论功能的后台接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善完成布料辅料的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.1.1 第十周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成设计师列表和详细信息的查询的后台接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成服装前端列表浏览服装的界面（迟到）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +833,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,14 +920,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1253,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1268,12 +1303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -1301,10 +1336,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1313,41 +1348,41 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
@@ -1438,12 +1473,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -1528,24 +1563,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
@@ -1632,24 +1667,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
@@ -1744,24 +1779,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -1801,7 +1836,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1813,7 +1848,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1823,7 +1858,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="34"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1833,31 +1868,31 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
@@ -1897,7 +1932,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1909,7 +1944,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +1954,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1929,31 +1964,31 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
@@ -1993,7 +2028,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2005,7 +2040,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2015,7 +2050,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="34"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2025,31 +2060,31 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
@@ -2134,24 +2169,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
@@ -2182,7 +2217,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="35" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2194,7 +2229,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2204,7 +2239,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2214,7 +2249,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2224,28 +2259,28 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
@@ -2330,24 +2365,24 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
@@ -2432,24 +2467,24 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
@@ -2536,24 +2571,24 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
@@ -2640,24 +2675,24 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
@@ -2742,24 +2777,24 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
@@ -2844,24 +2879,24 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="30"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="30"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
@@ -2946,24 +2981,24 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
+      <c r="A172" s="33"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="30"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A175" s="31" t="s">
@@ -3048,24 +3083,24 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="30"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
@@ -3096,7 +3131,9 @@
       <c r="B188" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="29"/>
+      <c r="C188" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="D188" s="29"/>
     </row>
     <row r="189" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3106,7 +3143,9 @@
       <c r="B189" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C189" s="29"/>
+      <c r="C189" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D189" s="29"/>
     </row>
     <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3116,7 +3155,9 @@
       <c r="B190" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C190" s="29"/>
+      <c r="C190" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3126,7 +3167,9 @@
       <c r="B191" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C191" s="29"/>
+      <c r="C191" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D191" s="29"/>
     </row>
     <row r="192" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3136,43 +3179,137 @@
       <c r="B192" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C192" s="29"/>
+      <c r="C192" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="30"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="30"/>
+      <c r="A194" s="33"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="33"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+    </row>
+    <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+    </row>
+    <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+    </row>
+    <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+    </row>
+    <row r="201" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+    </row>
+    <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+    </row>
+    <row r="203" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="A186:D186"/>
     <mergeCell ref="A193:D195"/>
     <mergeCell ref="A175:D175"/>
     <mergeCell ref="A182:D184"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A138:D140"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A149:D151"/>
     <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A171:D173"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A127:D129"/>
     <mergeCell ref="A109:D109"/>
@@ -3186,11 +3323,14 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D27"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3205,7 +3345,6 @@
     <mergeCell ref="A55:D57"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="170">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,15 +721,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.1.1 第十周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成设计师列表和详细信息的查询的后台接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成服装前端列表浏览服装的界面（迟到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合小组成员前面完成的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    梳理前面完成的内容，并对下一步的任务做一个计划，以及对之前遇到的问题和后面开发可能遇到的问题做一个总结和分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +853,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,6 +943,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1288,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1303,20 +1329,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1336,10 +1362,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1348,49 +1374,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1473,20 +1499,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1563,32 +1589,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1667,32 +1693,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1779,32 +1805,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1836,7 +1862,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1848,7 +1874,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1858,7 +1884,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1868,39 +1894,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1932,7 +1958,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1944,7 +1970,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1954,7 +1980,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1964,39 +1990,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="35"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2028,7 +2054,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2040,7 +2066,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="35"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2050,7 +2076,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="35"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2060,39 +2086,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="35"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2169,32 +2195,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2217,7 +2243,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2229,7 +2255,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="35"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2239,7 +2265,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="35"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,7 +2275,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="35"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2259,36 +2285,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="35"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2365,32 +2391,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2467,32 +2493,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2571,32 +2597,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2675,32 +2701,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2777,32 +2803,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2879,32 +2905,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -2981,32 +3007,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3083,32 +3109,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="33" t="s">
+      <c r="A182" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="33"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3185,32 +3211,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="33" t="s">
+      <c r="A193" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
+      <c r="A197" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3233,7 +3259,9 @@
       <c r="B199" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C199" s="30"/>
+      <c r="C199" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="D199" s="30"/>
     </row>
     <row r="200" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3243,7 +3271,9 @@
       <c r="B200" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C200" s="30"/>
+      <c r="C200" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="D200" s="30"/>
     </row>
     <row r="201" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3251,9 +3281,11 @@
         <v>8</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C201" s="30"/>
+        <v>162</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="D201" s="30"/>
     </row>
     <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3263,7 +3295,9 @@
       <c r="B202" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C202" s="30"/>
+      <c r="C202" s="30" t="s">
+        <v>165</v>
+      </c>
       <c r="D202" s="30"/>
     </row>
     <row r="203" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3271,33 +3305,121 @@
         <v>10</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C203" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>165</v>
+      </c>
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="33" t="s">
+      <c r="A204" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="33"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+    </row>
+    <row r="211" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+    </row>
+    <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="35"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31"/>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="35"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+    </row>
+    <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="35"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="34"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="34"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="A186:D186"/>
     <mergeCell ref="A193:D195"/>
     <mergeCell ref="A175:D175"/>
@@ -3323,14 +3445,11 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D27"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3345,6 +3464,12 @@
     <mergeCell ref="A55:D57"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -737,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.11.6 第十一周 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2017.11.1 第十周 周三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,6 +746,10 @@
   </si>
   <si>
     <t xml:space="preserve">    梳理前面完成的内容，并对下一步的任务做一个计划，以及对之前遇到的问题和后面开发可能遇到的问题做一个总结和分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一、周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,26 +955,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211:B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1329,12 +1329,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -1362,10 +1362,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1374,41 +1374,41 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -1499,12 +1499,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
@@ -1589,24 +1589,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
@@ -1693,24 +1693,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
@@ -1805,24 +1805,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
@@ -1862,7 +1862,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1874,7 +1874,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1894,31 +1894,31 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
@@ -1958,7 +1958,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1970,7 +1970,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -1990,31 +1990,31 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
@@ -2054,7 +2054,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2066,7 +2066,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2086,31 +2086,31 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
@@ -2195,24 +2195,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
@@ -2243,7 +2243,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2255,7 +2255,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="37"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2265,7 +2265,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="37"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2275,7 +2275,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="37"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2285,7 +2285,7 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -3232,7 +3232,7 @@
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -3359,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
@@ -3368,8 +3368,8 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="35" t="s">
-        <v>169</v>
+      <c r="B211" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
@@ -3378,7 +3378,7 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="35"/>
+      <c r="B212" s="41"/>
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
     </row>
@@ -3386,7 +3386,7 @@
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="35"/>
+      <c r="B213" s="41"/>
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
     </row>
@@ -3394,7 +3394,7 @@
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="35"/>
+      <c r="B214" s="41"/>
       <c r="C214" s="31"/>
       <c r="D214" s="31"/>
     </row>
@@ -3420,36 +3420,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3465,11 +3440,36 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="176">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,6 +750,30 @@
   </si>
   <si>
     <t>日期：2017.11.6 第十一周 周一、周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.7 第十一周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成用户注册界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成资讯信息详细界面的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同协作完成布料辅料列表浏览和详细页面的开发，及服装品牌列表浏览和详细页面的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料辅料管理的后台接口的开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +877,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -946,6 +970,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,6 +982,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,17 +1000,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1314,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211:B214"/>
+      <selection activeCell="A219" sqref="A219:D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1329,20 +1356,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1375,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,24 +1426,24 @@
         <v>10</v>
       </c>
       <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1499,20 +1526,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1589,32 +1616,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1693,32 +1720,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1805,32 +1832,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1901,32 +1928,32 @@
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1997,32 +2024,32 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2093,32 +2120,32 @@
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2195,32 +2222,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2289,32 +2316,32 @@
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2391,32 +2418,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2493,32 +2520,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2597,32 +2624,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2701,32 +2728,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2803,32 +2830,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="34"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2905,32 +2932,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="34"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="34"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3007,32 +3034,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="34" t="s">
+      <c r="A171" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="34"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="35"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="34"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="35"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3109,32 +3136,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="34"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="34"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3211,32 +3238,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="34" t="s">
+      <c r="A193" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="34"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
+      <c r="A194" s="35"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="34"/>
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
+      <c r="A195" s="35"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3313,32 +3340,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="34" t="s">
+      <c r="A204" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="34"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="34"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="35"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="34"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
+      <c r="A206" s="35"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="35"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="32" t="s">
+      <c r="A208" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="33"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3361,70 +3388,193 @@
       <c r="B210" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C210" s="31"/>
+      <c r="C210" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="D210" s="31"/>
     </row>
-    <row r="211" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="31"/>
+      <c r="C211" s="38" t="s">
+        <v>171</v>
+      </c>
       <c r="D211" s="31"/>
     </row>
     <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="41"/>
-      <c r="C212" s="31"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="38"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="41"/>
-      <c r="C213" s="31"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="38"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="41"/>
-      <c r="C214" s="31"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="38"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="34" t="s">
+      <c r="A215" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="35"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="34"/>
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="35"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="34"/>
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
+      <c r="A217" s="35"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="35"/>
+    </row>
+    <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+    </row>
+    <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+    </row>
+    <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+    </row>
+    <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+    </row>
+    <row r="224" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="38"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B226" s="35"/>
+      <c r="C226" s="35"/>
+      <c r="D226" s="35"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="35"/>
+      <c r="D227" s="35"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="35"/>
+      <c r="D228" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
+  <mergeCells count="54">
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3440,36 +3590,11 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="183">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,34 @@
   </si>
   <si>
     <t>布料辅料管理的后台接口的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.13、14 第十二周 周一、周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户账号管理模块的基本界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成发布作品页面的设计以及功能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计咨询列表和咨询详细信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同协作完成布料辅料管理模块和品牌服装管理模块的页面的开发。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +905,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -973,6 +1001,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,25 +1014,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1341,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219:D219"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1356,20 +1387,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1389,10 +1420,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1401,49 +1432,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1526,20 +1557,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1616,32 +1647,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1720,32 +1751,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1832,32 +1863,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1889,7 +1920,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1901,7 +1932,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1911,7 +1942,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1921,39 +1952,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -1985,7 +2016,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -1997,7 +2028,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -2007,7 +2038,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -2017,39 +2048,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2081,7 +2112,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2093,7 +2124,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2103,7 +2134,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2113,39 +2144,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2222,32 +2253,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2270,7 +2301,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2282,7 +2313,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="38"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2292,7 +2323,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2302,7 +2333,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="38"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,36 +2343,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="38"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="35"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2418,32 +2449,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2520,32 +2551,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="35"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2624,32 +2655,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="35"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2728,32 +2759,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="35" t="s">
+      <c r="A138" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="35"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="35"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2830,32 +2861,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="35"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="35"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="35"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2932,32 +2963,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="35"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="35"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="35"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="35"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3034,32 +3065,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="35"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="35"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="35"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3136,32 +3167,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="35" t="s">
+      <c r="A182" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="35"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="35"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="33" t="s">
+      <c r="A186" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3238,32 +3269,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="35" t="s">
+      <c r="A193" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="35"/>
-      <c r="C193" s="35"/>
-      <c r="D193" s="35"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="35"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="35"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="35"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="33" t="s">
+      <c r="A197" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="34"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3340,32 +3371,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="35" t="s">
+      <c r="A204" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="35"/>
-      <c r="C204" s="35"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="35"/>
-      <c r="B205" s="35"/>
-      <c r="C205" s="35"/>
-      <c r="D205" s="35"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="35"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="35"/>
-      <c r="D206" s="35"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="33" t="s">
+      <c r="A208" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="35"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3397,10 +3428,10 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="36" t="s">
+      <c r="B211" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" s="37" t="s">
         <v>171</v>
       </c>
       <c r="D211" s="31"/>
@@ -3409,53 +3440,53 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="36"/>
-      <c r="C212" s="38"/>
+      <c r="B212" s="43"/>
+      <c r="C212" s="37"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="36"/>
-      <c r="C213" s="38"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="36"/>
-      <c r="C214" s="38"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="37"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="35" t="s">
+      <c r="A215" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="35"/>
-      <c r="C215" s="35"/>
-      <c r="D215" s="35"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="36"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="35"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="35"/>
-      <c r="D216" s="35"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="36"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="35"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="35"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="36"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="33" t="s">
+      <c r="A219" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3478,7 +3509,9 @@
       <c r="B221" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C221" s="32"/>
+      <c r="C221" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="D221" s="32"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3488,7 +3521,9 @@
       <c r="B222" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C222" s="32"/>
+      <c r="C222" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="D222" s="32"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3498,83 +3533,147 @@
       <c r="B223" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C223" s="32"/>
+      <c r="C223" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="D223" s="32"/>
     </row>
     <row r="224" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="B224" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C224" s="32"/>
+      <c r="C224" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="D224" s="32"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="38"/>
-      <c r="C225" s="32"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="37"/>
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="35" t="s">
+      <c r="A226" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="35"/>
-      <c r="C226" s="35"/>
-      <c r="D226" s="35"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="35"/>
-      <c r="B227" s="35"/>
-      <c r="C227" s="35"/>
-      <c r="D227" s="35"/>
+      <c r="A227" s="36"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="35"/>
-      <c r="B228" s="35"/>
-      <c r="C228" s="35"/>
-      <c r="D228" s="35"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="36"/>
+      <c r="C228" s="36"/>
+      <c r="D228" s="36"/>
+    </row>
+    <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B230" s="35"/>
+      <c r="C230" s="35"/>
+      <c r="D230" s="35"/>
+    </row>
+    <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+    </row>
+    <row r="233" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+    </row>
+    <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C235" s="37"/>
+      <c r="D235" s="33"/>
+    </row>
+    <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="37"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="33"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" s="36"/>
+      <c r="C237" s="36"/>
+      <c r="D237" s="36"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" s="36"/>
+      <c r="B238" s="36"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="36"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="36"/>
+      <c r="B239" s="36"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A226:D228"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
+  <mergeCells count="59">
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:D239"/>
     <mergeCell ref="A95:D97"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
@@ -3590,11 +3689,46 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
     <mergeCell ref="A208:D208"/>
     <mergeCell ref="A215:D217"/>
     <mergeCell ref="B211:B214"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D206"/>
+    <mergeCell ref="C224:C225"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="190">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,34 @@
   </si>
   <si>
     <t>共同协作完成布料辅料管理模块和品牌服装管理模块的页面的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第十二周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册功能的前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成发布作品页面的设计以及功能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续设计咨询列表和咨询详细信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善界面以及数据库数据的录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +933,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,17 +1032,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,9 +1061,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1372,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1387,20 +1418,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1433,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="37"/>
-      <c r="C6" s="41"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,24 +1488,24 @@
         <v>10</v>
       </c>
       <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1557,20 +1588,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1647,32 +1678,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1751,32 +1782,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1863,32 +1894,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1959,32 +1990,32 @@
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -2055,32 +2086,32 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2151,32 +2182,32 @@
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2253,32 +2284,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2347,32 +2378,32 @@
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2449,32 +2480,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2551,32 +2582,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="36" t="s">
+      <c r="A116" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2655,32 +2686,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2759,32 +2790,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2861,32 +2892,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="36" t="s">
+      <c r="A149" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="36"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
+      <c r="A150" s="38"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
+      <c r="A151" s="38"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="38"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2963,32 +2994,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="36" t="s">
+      <c r="A160" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
+      <c r="A161" s="38"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
+      <c r="A162" s="38"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="35"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3065,32 +3096,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="36" t="s">
+      <c r="A171" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="38"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
+      <c r="A172" s="38"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
+      <c r="A173" s="38"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="34" t="s">
+      <c r="A175" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3167,32 +3198,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="36" t="s">
+      <c r="A182" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
+      <c r="A183" s="38"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="34" t="s">
+      <c r="A186" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3269,32 +3300,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="36" t="s">
+      <c r="A193" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="36"/>
-      <c r="C193" s="36"/>
-      <c r="D193" s="36"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="36"/>
+      <c r="A194" s="38"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
+      <c r="A195" s="38"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="34" t="s">
+      <c r="A197" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="35"/>
-      <c r="C197" s="35"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3371,32 +3402,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="36" t="s">
+      <c r="A204" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="36"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="36"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="38"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
+      <c r="A205" s="38"/>
+      <c r="B205" s="38"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="38"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="36"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="36"/>
-      <c r="D206" s="36"/>
+      <c r="A206" s="38"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="38"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="34" t="s">
+      <c r="A208" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="35"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3428,7 +3459,7 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="43" t="s">
+      <c r="B211" s="44" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="37" t="s">
@@ -3440,7 +3471,7 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="43"/>
+      <c r="B212" s="44"/>
       <c r="C212" s="37"/>
       <c r="D212" s="31"/>
     </row>
@@ -3448,7 +3479,7 @@
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="43"/>
+      <c r="B213" s="44"/>
       <c r="C213" s="37"/>
       <c r="D213" s="31"/>
     </row>
@@ -3456,37 +3487,37 @@
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="43"/>
+      <c r="B214" s="44"/>
       <c r="C214" s="37"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="36"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
+      <c r="B215" s="38"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="36"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="36"/>
-      <c r="D216" s="36"/>
+      <c r="A216" s="38"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="38"/>
+      <c r="D216" s="38"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
+      <c r="A217" s="38"/>
+      <c r="B217" s="38"/>
+      <c r="C217" s="38"/>
+      <c r="D217" s="38"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="34" t="s">
+      <c r="A219" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="35"/>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="36"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3559,32 +3590,32 @@
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="36"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
+      <c r="B226" s="38"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="38"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="36"/>
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
+      <c r="A227" s="38"/>
+      <c r="B227" s="38"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="38"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="36"/>
-      <c r="B228" s="36"/>
-      <c r="C228" s="36"/>
-      <c r="D228" s="36"/>
+      <c r="A228" s="38"/>
+      <c r="B228" s="38"/>
+      <c r="C228" s="38"/>
+      <c r="D228" s="38"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="34" t="s">
+      <c r="A230" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B230" s="35"/>
-      <c r="C230" s="35"/>
-      <c r="D230" s="35"/>
+      <c r="B230" s="36"/>
+      <c r="C230" s="36"/>
+      <c r="D230" s="36"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
@@ -3607,7 +3638,9 @@
       <c r="B232" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C232" s="33"/>
+      <c r="C232" s="33" t="s">
+        <v>184</v>
+      </c>
       <c r="D232" s="33"/>
     </row>
     <row r="233" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3617,7 +3650,9 @@
       <c r="B233" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C233" s="33"/>
+      <c r="C233" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="D233" s="33"/>
     </row>
     <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3627,7 +3662,9 @@
       <c r="B234" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C234" s="33"/>
+      <c r="C234" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="D234" s="33"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3637,7 +3674,9 @@
       <c r="B235" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="37"/>
+      <c r="C235" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="D235" s="33"/>
     </row>
     <row r="236" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3649,74 +3688,121 @@
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="36" t="s">
+      <c r="A237" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="36"/>
-      <c r="C237" s="36"/>
-      <c r="D237" s="36"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="38"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="36"/>
-      <c r="B238" s="36"/>
-      <c r="C238" s="36"/>
-      <c r="D238" s="36"/>
+      <c r="A238" s="38"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="38"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="36"/>
-      <c r="B239" s="36"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="36"/>
+      <c r="A239" s="38"/>
+      <c r="B239" s="38"/>
+      <c r="C239" s="38"/>
+      <c r="D239" s="38"/>
+    </row>
+    <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B241" s="36"/>
+      <c r="C241" s="36"/>
+      <c r="D241" s="36"/>
+    </row>
+    <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C243" s="34"/>
+      <c r="D243" s="34"/>
+    </row>
+    <row r="244" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+    </row>
+    <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C245" s="34"/>
+      <c r="D245" s="34"/>
+    </row>
+    <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C246" s="37"/>
+      <c r="D246" s="34"/>
+    </row>
+    <row r="247" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="37"/>
+      <c r="C247" s="37"/>
+      <c r="D247" s="34"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" s="38"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="38"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" s="38"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" s="38"/>
+      <c r="B250" s="38"/>
+      <c r="C250" s="38"/>
+      <c r="D250" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:D239"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
+  <mergeCells count="63">
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
     <mergeCell ref="A219:D219"/>
     <mergeCell ref="A226:D228"/>
     <mergeCell ref="C211:C214"/>
@@ -3729,6 +3815,53 @@
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D206"/>
     <mergeCell ref="C224:C225"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:D239"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="197">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,34 @@
   </si>
   <si>
     <t>完善界面以及数据库数据的录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册功能未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.20/21 第十三周 周一、二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册功能和忘记密码功能前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品列表页面的前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯列表和详细信息页面的前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动页的设置以及找图片和图标素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +961,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1035,6 +1063,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,23 +1078,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1403,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1418,20 +1449,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1451,10 +1482,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1463,49 +1494,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1588,20 +1619,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1678,32 +1709,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1782,32 +1813,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1894,32 +1925,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1951,7 +1982,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1963,7 +1994,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -1973,7 +2004,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -1983,39 +2014,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -2047,7 +2078,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -2059,7 +2090,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -2069,7 +2100,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -2079,39 +2110,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2143,7 +2174,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2155,7 +2186,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2165,7 +2196,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2175,39 +2206,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2284,32 +2315,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2332,7 +2363,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2344,7 +2375,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="37"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,7 +2385,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="37"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2364,7 +2395,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="37"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,36 +2405,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="37"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2480,32 +2511,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2582,32 +2613,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2686,32 +2717,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2790,32 +2821,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="38"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2892,32 +2923,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="38"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="38"/>
-      <c r="D150" s="38"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="38"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="38"/>
-      <c r="D151" s="38"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="35" t="s">
+      <c r="A153" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="36"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="36"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -2994,32 +3025,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="38"/>
-      <c r="C160" s="38"/>
-      <c r="D160" s="38"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="38"/>
-      <c r="B161" s="38"/>
-      <c r="C161" s="38"/>
-      <c r="D161" s="38"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="38"/>
-      <c r="B162" s="38"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="38"/>
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="35" t="s">
+      <c r="A164" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3096,32 +3127,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="38" t="s">
+      <c r="A171" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="38"/>
-      <c r="C171" s="38"/>
-      <c r="D171" s="38"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="38"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="38"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="38"/>
-      <c r="B173" s="38"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="38"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3198,32 +3229,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="38" t="s">
+      <c r="A182" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="38"/>
-      <c r="B183" s="38"/>
-      <c r="C183" s="38"/>
-      <c r="D183" s="38"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="39"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="38"/>
-      <c r="B184" s="38"/>
-      <c r="C184" s="38"/>
-      <c r="D184" s="38"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="35" t="s">
+      <c r="A186" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="37"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3300,32 +3331,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="38"/>
-      <c r="C193" s="38"/>
-      <c r="D193" s="38"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="39"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="38"/>
-      <c r="B194" s="38"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="38"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="38"/>
-      <c r="B195" s="38"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="38"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="39"/>
+      <c r="D195" s="39"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="35" t="s">
+      <c r="A197" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="36"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3402,32 +3433,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="38" t="s">
+      <c r="A204" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="38"/>
-      <c r="C204" s="38"/>
-      <c r="D204" s="38"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="39"/>
+      <c r="D204" s="39"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="38"/>
-      <c r="B205" s="38"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="38"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="38"/>
-      <c r="B206" s="38"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="38"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="35" t="s">
+      <c r="A208" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3459,10 +3490,10 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="44" t="s">
+      <c r="B211" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="37" t="s">
+      <c r="C211" s="38" t="s">
         <v>171</v>
       </c>
       <c r="D211" s="31"/>
@@ -3471,53 +3502,53 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="44"/>
-      <c r="C212" s="37"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="38"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="44"/>
-      <c r="C213" s="37"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="38"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="44"/>
-      <c r="C214" s="37"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="38"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="38" t="s">
+      <c r="A215" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="38"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="38"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="39"/>
+      <c r="D215" s="39"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="38"/>
-      <c r="B216" s="38"/>
-      <c r="C216" s="38"/>
-      <c r="D216" s="38"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="39"/>
+      <c r="D216" s="39"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="38"/>
-      <c r="B217" s="38"/>
-      <c r="C217" s="38"/>
-      <c r="D217" s="38"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="35" t="s">
+      <c r="A219" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="36"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="36"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3573,10 +3604,10 @@
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C224" s="37" t="s">
+      <c r="C224" s="38" t="s">
         <v>176</v>
       </c>
       <c r="D224" s="32"/>
@@ -3585,37 +3616,37 @@
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="37"/>
-      <c r="C225" s="37"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="38"/>
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="38" t="s">
+      <c r="A226" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="38"/>
-      <c r="C226" s="38"/>
-      <c r="D226" s="38"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="39"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="38"/>
-      <c r="B227" s="38"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="38"/>
+      <c r="A227" s="39"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="39"/>
+      <c r="D227" s="39"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="38"/>
-      <c r="B228" s="38"/>
-      <c r="C228" s="38"/>
-      <c r="D228" s="38"/>
+      <c r="A228" s="39"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="39"/>
+      <c r="D228" s="39"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="35" t="s">
+      <c r="A230" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B230" s="36"/>
-      <c r="C230" s="36"/>
-      <c r="D230" s="36"/>
+      <c r="B230" s="37"/>
+      <c r="C230" s="37"/>
+      <c r="D230" s="37"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
@@ -3671,10 +3702,10 @@
       <c r="A235" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="37" t="s">
+      <c r="B235" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="37" t="s">
+      <c r="C235" s="38" t="s">
         <v>184</v>
       </c>
       <c r="D235" s="33"/>
@@ -3683,37 +3714,37 @@
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="37"/>
-      <c r="C236" s="37"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="38" t="s">
+      <c r="A237" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="38"/>
-      <c r="C237" s="38"/>
-      <c r="D237" s="38"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="39"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="38"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="38"/>
-      <c r="D238" s="38"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="39"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="38"/>
-      <c r="B239" s="38"/>
-      <c r="C239" s="38"/>
-      <c r="D239" s="38"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="39"/>
+      <c r="D239" s="39"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="35" t="s">
+      <c r="A241" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B241" s="36"/>
-      <c r="C241" s="36"/>
-      <c r="D241" s="36"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="37"/>
     </row>
     <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
@@ -3736,7 +3767,9 @@
       <c r="B243" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C243" s="34"/>
+      <c r="C243" s="34" t="s">
+        <v>190</v>
+      </c>
       <c r="D243" s="34"/>
     </row>
     <row r="244" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3746,7 +3779,9 @@
       <c r="B244" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C244" s="34"/>
+      <c r="C244" s="34" t="s">
+        <v>191</v>
+      </c>
       <c r="D244" s="34"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3756,77 +3791,165 @@
       <c r="B245" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C245" s="34"/>
+      <c r="C245" s="34" t="s">
+        <v>191</v>
+      </c>
       <c r="D245" s="34"/>
     </row>
     <row r="246" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B246" s="37" t="s">
+      <c r="B246" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C246" s="37"/>
+      <c r="C246" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="D246" s="34"/>
     </row>
     <row r="247" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B247" s="37"/>
-      <c r="C247" s="37"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="38"/>
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="38" t="s">
+      <c r="A248" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="38"/>
-      <c r="C248" s="38"/>
-      <c r="D248" s="38"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="39"/>
+      <c r="D248" s="39"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="38"/>
-      <c r="B249" s="38"/>
-      <c r="C249" s="38"/>
-      <c r="D249" s="38"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="39"/>
+      <c r="D249" s="39"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="38"/>
-      <c r="B250" s="38"/>
-      <c r="C250" s="38"/>
-      <c r="D250" s="38"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="39"/>
+      <c r="D250" s="39"/>
+    </row>
+    <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B252" s="37"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+    </row>
+    <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+    </row>
+    <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+    </row>
+    <row r="256" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C256" s="35"/>
+      <c r="D256" s="35"/>
+    </row>
+    <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C257" s="38"/>
+      <c r="D257" s="35"/>
+    </row>
+    <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="38"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="35"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B259" s="39"/>
+      <c r="C259" s="39"/>
+      <c r="D259" s="39"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="39"/>
+      <c r="D260" s="39"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="39"/>
+      <c r="D261" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A226:D228"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
+  <mergeCells count="67">
+    <mergeCell ref="A259:D261"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A18:D18"/>
@@ -3843,25 +3966,35 @@
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
     <mergeCell ref="A237:D239"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="205">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,38 @@
   </si>
   <si>
     <t>启动页的设置以及找图片和图标素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.22 第十三周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作品列表页面的前后台的交互，以及页面的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成修改用户信息的（修改密码，修改头像，姓名，性别）前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯列表和详细信息页面的前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料辅料管理模块界面的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌服装管理模块界面的优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +993,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1066,6 +1098,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,25 +1114,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1434,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268:C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1449,20 +1484,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1482,10 +1517,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1494,49 +1529,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1619,20 +1654,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1709,32 +1744,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1813,32 +1848,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1925,32 +1960,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1982,7 +2017,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -1994,7 +2029,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -2004,7 +2039,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -2014,39 +2049,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -2078,7 +2113,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -2090,7 +2125,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -2100,7 +2135,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -2110,39 +2145,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2174,7 +2209,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2186,7 +2221,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2196,7 +2231,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2206,39 +2241,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2315,32 +2350,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2363,7 +2398,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="40" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2375,7 +2410,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="38"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2385,7 +2420,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2395,7 +2430,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="38"/>
+      <c r="C93" s="40"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2405,36 +2440,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="38"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2511,32 +2546,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2613,32 +2648,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
+      <c r="A120" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2717,32 +2752,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2821,32 +2856,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="36" t="s">
+      <c r="A142" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2923,32 +2958,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="39" t="s">
+      <c r="A149" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="36" t="s">
+      <c r="A153" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -3025,32 +3060,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="36" t="s">
+      <c r="A164" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3127,32 +3162,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="37"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="36" t="s">
+      <c r="A175" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="37"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="37"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3229,32 +3264,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="37"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="37"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="36" t="s">
+      <c r="A186" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="37"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="37"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3331,32 +3366,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="39" t="s">
+      <c r="A193" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="37"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="39"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="36" t="s">
+      <c r="A197" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="37"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3433,32 +3468,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="39" t="s">
+      <c r="A204" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="39"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3490,10 +3525,10 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="40" t="s">
+      <c r="B211" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D211" s="31"/>
@@ -3502,53 +3537,53 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="38"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="40"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="40"/>
-      <c r="C213" s="38"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="40"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="40"/>
-      <c r="C214" s="38"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="40"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="39" t="s">
+      <c r="A215" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
-      <c r="D215" s="39"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="39"/>
-      <c r="D216" s="39"/>
+      <c r="A216" s="37"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="37"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
+      <c r="A217" s="37"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="36" t="s">
+      <c r="A219" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="37"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="39"/>
+      <c r="D219" s="39"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3604,10 +3639,10 @@
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="B224" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C224" s="38" t="s">
+      <c r="C224" s="40" t="s">
         <v>176</v>
       </c>
       <c r="D224" s="32"/>
@@ -3616,37 +3651,37 @@
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="38"/>
-      <c r="C225" s="38"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="40"/>
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="39" t="s">
+      <c r="A226" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
+      <c r="B226" s="37"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
+      <c r="A227" s="37"/>
+      <c r="B227" s="37"/>
+      <c r="C227" s="37"/>
+      <c r="D227" s="37"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
-      <c r="D228" s="39"/>
+      <c r="A228" s="37"/>
+      <c r="B228" s="37"/>
+      <c r="C228" s="37"/>
+      <c r="D228" s="37"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="36" t="s">
+      <c r="A230" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B230" s="37"/>
-      <c r="C230" s="37"/>
-      <c r="D230" s="37"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="39"/>
+      <c r="D230" s="39"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
@@ -3702,10 +3737,10 @@
       <c r="A235" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="38" t="s">
+      <c r="C235" s="40" t="s">
         <v>184</v>
       </c>
       <c r="D235" s="33"/>
@@ -3714,37 +3749,37 @@
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="38"/>
-      <c r="C236" s="38"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="40"/>
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="39" t="s">
+      <c r="A237" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="39"/>
-      <c r="C237" s="39"/>
-      <c r="D237" s="39"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="37"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="39"/>
+      <c r="A238" s="37"/>
+      <c r="B238" s="37"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="37"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
-      <c r="C239" s="39"/>
-      <c r="D239" s="39"/>
+      <c r="A239" s="37"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="36" t="s">
+      <c r="A241" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="B241" s="37"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="37"/>
+      <c r="B241" s="39"/>
+      <c r="C241" s="39"/>
+      <c r="D241" s="39"/>
     </row>
     <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
@@ -3800,10 +3835,10 @@
       <c r="A246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B246" s="38" t="s">
+      <c r="B246" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C246" s="38" t="s">
+      <c r="C246" s="40" t="s">
         <v>191</v>
       </c>
       <c r="D246" s="34"/>
@@ -3812,37 +3847,37 @@
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B247" s="38"/>
-      <c r="C247" s="38"/>
+      <c r="B247" s="40"/>
+      <c r="C247" s="40"/>
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="39" t="s">
+      <c r="A248" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="39"/>
-      <c r="C248" s="39"/>
-      <c r="D248" s="39"/>
+      <c r="B248" s="37"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="37"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
-      <c r="C249" s="39"/>
-      <c r="D249" s="39"/>
+      <c r="A249" s="37"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="37"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
-      <c r="C250" s="39"/>
-      <c r="D250" s="39"/>
+      <c r="A250" s="37"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="37"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="36" t="s">
+      <c r="A252" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B252" s="37"/>
-      <c r="C252" s="37"/>
-      <c r="D252" s="37"/>
+      <c r="B252" s="39"/>
+      <c r="C252" s="39"/>
+      <c r="D252" s="39"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
@@ -3865,7 +3900,9 @@
       <c r="B254" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C254" s="35"/>
+      <c r="C254" s="35" t="s">
+        <v>202</v>
+      </c>
       <c r="D254" s="35"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3875,7 +3912,9 @@
       <c r="B255" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C255" s="35"/>
+      <c r="C255" s="35" t="s">
+        <v>202</v>
+      </c>
       <c r="D255" s="35"/>
     </row>
     <row r="256" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -3885,55 +3924,183 @@
       <c r="B256" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C256" s="35"/>
+      <c r="C256" s="35" t="s">
+        <v>201</v>
+      </c>
       <c r="D256" s="35"/>
     </row>
     <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B257" s="38" t="s">
+      <c r="B257" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C257" s="38"/>
+      <c r="C257" s="40" t="s">
+        <v>202</v>
+      </c>
       <c r="D257" s="35"/>
     </row>
     <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="38"/>
-      <c r="C258" s="38"/>
+      <c r="B258" s="40"/>
+      <c r="C258" s="40"/>
       <c r="D258" s="35"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="39" t="s">
+      <c r="A259" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
-      <c r="D259" s="39"/>
+      <c r="B259" s="37"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="37"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
-      <c r="D260" s="39"/>
+      <c r="A260" s="37"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
-      <c r="C261" s="39"/>
-      <c r="D261" s="39"/>
+      <c r="A261" s="37"/>
+      <c r="B261" s="37"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="37"/>
+    </row>
+    <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B263" s="39"/>
+      <c r="C263" s="39"/>
+      <c r="D263" s="39"/>
+    </row>
+    <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C265" s="36"/>
+      <c r="D265" s="36"/>
+    </row>
+    <row r="266" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C266" s="36"/>
+      <c r="D266" s="36"/>
+    </row>
+    <row r="267" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C267" s="36"/>
+      <c r="D267" s="36"/>
+    </row>
+    <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C268" s="40"/>
+      <c r="D268" s="36"/>
+    </row>
+    <row r="269" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C269" s="40"/>
+      <c r="D269" s="36"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B270" s="37"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="37"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271" s="37"/>
+      <c r="B271" s="37"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="37"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272" s="37"/>
+      <c r="B272" s="37"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A259:D261"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
+  <mergeCells count="70">
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:D272"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
+    <mergeCell ref="A237:D239"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="A65:D67"/>
     <mergeCell ref="A78:D78"/>
@@ -3950,29 +4117,12 @@
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A138:D140"/>
     <mergeCell ref="A142:D142"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A259:D261"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
     <mergeCell ref="A175:D175"/>
     <mergeCell ref="A182:D184"/>
     <mergeCell ref="A153:D153"/>
@@ -3983,18 +4133,6 @@
     <mergeCell ref="A186:D186"/>
     <mergeCell ref="A193:D195"/>
     <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A226:D228"/>
-    <mergeCell ref="A237:D239"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="212">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,7 +889,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27/28 第十三周 周一、二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合小组成员前面完成的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯列表下拉刷新，加载更多的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成想买界面以及功能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集图片素材和图标素材，协助优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品牌服装管理模块界面的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌服装管理模块后台的查询功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1021,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1101,35 +1129,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1469,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268:C269"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1484,12 +1515,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -1530,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1538,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="40"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1546,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="40"/>
-      <c r="C7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,16 +1585,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="40"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
@@ -1654,12 +1685,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
@@ -1744,24 +1775,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
@@ -1848,24 +1879,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
@@ -1960,24 +1991,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -2056,24 +2087,24 @@
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
@@ -2152,24 +2183,24 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
@@ -2248,24 +2279,24 @@
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
@@ -2350,24 +2381,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="41"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
@@ -2444,24 +2475,24 @@
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
@@ -2546,24 +2577,24 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
@@ -2648,24 +2679,24 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
@@ -2752,24 +2783,24 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
@@ -2856,24 +2887,24 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="37" t="s">
+      <c r="A138" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
@@ -2958,24 +2989,24 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="37"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="37"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
@@ -3060,24 +3091,24 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="37" t="s">
+      <c r="A160" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="37"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="41"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="37"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="37"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
@@ -3162,24 +3193,24 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="37"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="37"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="37"/>
-      <c r="B173" s="37"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="37"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A175" s="38" t="s">
@@ -3264,24 +3295,24 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="37"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="37"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="37"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="41"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="37"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
@@ -3366,24 +3397,24 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="37" t="s">
+      <c r="A193" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="37"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="37"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A197" s="38" t="s">
@@ -3468,24 +3499,24 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="37" t="s">
+      <c r="A204" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="37"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="41"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="37"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
+      <c r="A205" s="41"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="41"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
+      <c r="D206" s="41"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A208" s="38" t="s">
@@ -3525,7 +3556,7 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="42" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="40" t="s">
@@ -3537,7 +3568,7 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="46"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="40"/>
       <c r="D212" s="31"/>
     </row>
@@ -3545,7 +3576,7 @@
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="46"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="40"/>
       <c r="D213" s="31"/>
     </row>
@@ -3553,29 +3584,29 @@
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="46"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="40"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="37"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="41"/>
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="37"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
+      <c r="A217" s="41"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A219" s="38" t="s">
@@ -3656,24 +3687,24 @@
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="37" t="s">
+      <c r="A226" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="37"/>
-      <c r="C226" s="37"/>
-      <c r="D226" s="37"/>
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="37"/>
-      <c r="B227" s="37"/>
-      <c r="C227" s="37"/>
-      <c r="D227" s="37"/>
+      <c r="A227" s="41"/>
+      <c r="B227" s="41"/>
+      <c r="C227" s="41"/>
+      <c r="D227" s="41"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="37"/>
-      <c r="B228" s="37"/>
-      <c r="C228" s="37"/>
-      <c r="D228" s="37"/>
+      <c r="A228" s="41"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="41"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
@@ -3754,24 +3785,24 @@
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="37" t="s">
+      <c r="A237" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="37"/>
-      <c r="C237" s="37"/>
-      <c r="D237" s="37"/>
+      <c r="B237" s="41"/>
+      <c r="C237" s="41"/>
+      <c r="D237" s="41"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="37"/>
-      <c r="B238" s="37"/>
-      <c r="C238" s="37"/>
-      <c r="D238" s="37"/>
+      <c r="A238" s="41"/>
+      <c r="B238" s="41"/>
+      <c r="C238" s="41"/>
+      <c r="D238" s="41"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="37"/>
-      <c r="B239" s="37"/>
-      <c r="C239" s="37"/>
-      <c r="D239" s="37"/>
+      <c r="A239" s="41"/>
+      <c r="B239" s="41"/>
+      <c r="C239" s="41"/>
+      <c r="D239" s="41"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A241" s="38" t="s">
@@ -3852,24 +3883,24 @@
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="37" t="s">
+      <c r="A248" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="37"/>
-      <c r="C248" s="37"/>
-      <c r="D248" s="37"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
+      <c r="D248" s="41"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="37"/>
-      <c r="B249" s="37"/>
-      <c r="C249" s="37"/>
-      <c r="D249" s="37"/>
+      <c r="A249" s="41"/>
+      <c r="B249" s="41"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="37"/>
-      <c r="B250" s="37"/>
-      <c r="C250" s="37"/>
-      <c r="D250" s="37"/>
+      <c r="A250" s="41"/>
+      <c r="B250" s="41"/>
+      <c r="C250" s="41"/>
+      <c r="D250" s="41"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A252" s="38" t="s">
@@ -3950,24 +3981,24 @@
       <c r="D258" s="35"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="37" t="s">
+      <c r="A259" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B259" s="37"/>
-      <c r="C259" s="37"/>
-      <c r="D259" s="37"/>
+      <c r="B259" s="41"/>
+      <c r="C259" s="41"/>
+      <c r="D259" s="41"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="37"/>
-      <c r="B260" s="37"/>
-      <c r="C260" s="37"/>
-      <c r="D260" s="37"/>
+      <c r="A260" s="41"/>
+      <c r="B260" s="41"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="41"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="37"/>
-      <c r="B261" s="37"/>
-      <c r="C261" s="37"/>
-      <c r="D261" s="37"/>
+      <c r="A261" s="41"/>
+      <c r="B261" s="41"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="41"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A263" s="38" t="s">
@@ -3998,7 +4029,9 @@
       <c r="B265" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C265" s="36"/>
+      <c r="C265" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="D265" s="36"/>
     </row>
     <row r="266" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -4008,7 +4041,9 @@
       <c r="B266" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C266" s="36"/>
+      <c r="C266" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="D266" s="36"/>
     </row>
     <row r="267" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -4018,7 +4053,9 @@
       <c r="B267" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C267" s="36"/>
+      <c r="C267" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="D267" s="36"/>
     </row>
     <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4028,7 +4065,9 @@
       <c r="B268" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C268" s="40"/>
+      <c r="C268" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="D268" s="36"/>
     </row>
     <row r="269" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4036,45 +4075,167 @@
         <v>10</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C269" s="40"/>
       <c r="D269" s="36"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="37" t="s">
+      <c r="A270" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="37"/>
-      <c r="C270" s="37"/>
-      <c r="D270" s="37"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="41"/>
+      <c r="D270" s="41"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="37"/>
-      <c r="B271" s="37"/>
-      <c r="C271" s="37"/>
-      <c r="D271" s="37"/>
+      <c r="A271" s="41"/>
+      <c r="B271" s="41"/>
+      <c r="C271" s="41"/>
+      <c r="D271" s="41"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="37"/>
-      <c r="B272" s="37"/>
-      <c r="C272" s="37"/>
-      <c r="D272" s="37"/>
+      <c r="A272" s="41"/>
+      <c r="B272" s="41"/>
+      <c r="C272" s="41"/>
+      <c r="D272" s="41"/>
+    </row>
+    <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B274" s="39"/>
+      <c r="C274" s="39"/>
+      <c r="D274" s="39"/>
+    </row>
+    <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C276" s="37"/>
+      <c r="D276" s="37"/>
+    </row>
+    <row r="277" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C277" s="37"/>
+      <c r="D277" s="37"/>
+    </row>
+    <row r="278" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C278" s="37"/>
+      <c r="D278" s="37"/>
+    </row>
+    <row r="279" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C279" s="40"/>
+      <c r="D279" s="37"/>
+    </row>
+    <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C280" s="40"/>
+      <c r="D280" s="37"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B281" s="41"/>
+      <c r="C281" s="41"/>
+      <c r="D281" s="41"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282" s="41"/>
+      <c r="B282" s="41"/>
+      <c r="C282" s="41"/>
+      <c r="D282" s="41"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283" s="41"/>
+      <c r="B283" s="41"/>
+      <c r="C283" s="41"/>
+      <c r="D283" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A270:D272"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A226:D228"/>
-    <mergeCell ref="A237:D239"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
+  <mergeCells count="73">
+    <mergeCell ref="A281:D283"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A259:D261"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D206"/>
     <mergeCell ref="C224:C225"/>
@@ -4091,48 +4252,21 @@
     <mergeCell ref="A25:D27"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
+    <mergeCell ref="A237:D239"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
     <mergeCell ref="A230:D230"/>
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A259:D261"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:D272"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="218">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,10 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.11.27/28 第十三周 周一、二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整合小组成员前面完成的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,6 +914,34 @@
   </si>
   <si>
     <t>品牌服装管理模块后台的查询功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.29 第十四周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27/28 第十四周 周一、二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页的前后台的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1045,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1132,6 +1156,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,25 +1172,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1500,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290:C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1515,20 +1542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1548,10 +1575,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1560,49 +1587,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1685,20 +1712,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1775,32 +1802,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1879,32 +1906,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1991,32 +2018,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -2048,7 +2075,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="42" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -2060,7 +2087,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="40"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -2070,7 +2097,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="40"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -2080,39 +2107,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="40"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -2144,7 +2171,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -2156,7 +2183,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -2166,7 +2193,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -2176,39 +2203,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2240,7 +2267,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="42" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2252,7 +2279,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2262,7 +2289,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2272,39 +2299,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2381,32 +2408,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2429,7 +2456,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="42" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2441,7 +2468,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="40"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2451,7 +2478,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="40"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2461,7 +2488,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2471,36 +2498,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="40"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2577,32 +2604,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="41"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="41"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2679,32 +2706,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="41" t="s">
+      <c r="A116" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2783,32 +2810,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="41"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="41"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2887,32 +2914,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="41" t="s">
+      <c r="A138" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="41"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="41"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="41"/>
-      <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="41"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -2989,32 +3016,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="41"/>
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="41"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="41"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -3091,32 +3118,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="41" t="s">
+      <c r="A160" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="41"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="41"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="41"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3193,32 +3220,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="41" t="s">
+      <c r="A171" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="41"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="41"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="41"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="41"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="38" t="s">
+      <c r="A175" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3295,32 +3322,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="41" t="s">
+      <c r="A182" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="41"/>
-      <c r="C182" s="41"/>
-      <c r="D182" s="41"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="39"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="41"/>
-      <c r="B183" s="41"/>
-      <c r="C183" s="41"/>
-      <c r="D183" s="41"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="39"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="41"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="41"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="39"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="38" t="s">
+      <c r="A186" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3397,32 +3424,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="41" t="s">
+      <c r="A193" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="41"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="41"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="39"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="41"/>
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="41"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="41"/>
-      <c r="B195" s="41"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="39"/>
+      <c r="D195" s="39"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="38" t="s">
+      <c r="A197" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3499,32 +3526,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="41" t="s">
+      <c r="A204" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="41"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="39"/>
+      <c r="D204" s="39"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="41"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="41"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="41"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="41"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="39"/>
+      <c r="D206" s="39"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="38" t="s">
+      <c r="A208" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3556,10 +3583,10 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="42" t="s">
+      <c r="B211" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="40" t="s">
+      <c r="C211" s="42" t="s">
         <v>171</v>
       </c>
       <c r="D211" s="31"/>
@@ -3568,53 +3595,53 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="42"/>
-      <c r="C212" s="40"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="42"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="42"/>
-      <c r="C213" s="40"/>
+      <c r="B213" s="48"/>
+      <c r="C213" s="42"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="42"/>
-      <c r="C214" s="40"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="42"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="41" t="s">
+      <c r="A215" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="41"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="41"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="39"/>
+      <c r="D215" s="39"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="41"/>
-      <c r="B216" s="41"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="41"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="39"/>
+      <c r="D216" s="39"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="41"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="38" t="s">
+      <c r="A219" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="39"/>
-      <c r="C219" s="39"/>
-      <c r="D219" s="39"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3670,10 +3697,10 @@
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="40" t="s">
+      <c r="B224" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C224" s="40" t="s">
+      <c r="C224" s="42" t="s">
         <v>176</v>
       </c>
       <c r="D224" s="32"/>
@@ -3682,37 +3709,37 @@
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="42"/>
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="41" t="s">
+      <c r="A226" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="41"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="41"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="39"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="41"/>
-      <c r="B227" s="41"/>
-      <c r="C227" s="41"/>
-      <c r="D227" s="41"/>
+      <c r="A227" s="39"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="39"/>
+      <c r="D227" s="39"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="41"/>
-      <c r="B228" s="41"/>
-      <c r="C228" s="41"/>
-      <c r="D228" s="41"/>
+      <c r="A228" s="39"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="39"/>
+      <c r="D228" s="39"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="38" t="s">
+      <c r="A230" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B230" s="39"/>
-      <c r="C230" s="39"/>
-      <c r="D230" s="39"/>
+      <c r="B230" s="41"/>
+      <c r="C230" s="41"/>
+      <c r="D230" s="41"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
@@ -3768,10 +3795,10 @@
       <c r="A235" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="40" t="s">
+      <c r="B235" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="40" t="s">
+      <c r="C235" s="42" t="s">
         <v>184</v>
       </c>
       <c r="D235" s="33"/>
@@ -3780,37 +3807,37 @@
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="40"/>
-      <c r="C236" s="40"/>
+      <c r="B236" s="42"/>
+      <c r="C236" s="42"/>
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="41" t="s">
+      <c r="A237" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="41"/>
-      <c r="C237" s="41"/>
-      <c r="D237" s="41"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="39"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="41"/>
-      <c r="B238" s="41"/>
-      <c r="C238" s="41"/>
-      <c r="D238" s="41"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="39"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="41"/>
-      <c r="B239" s="41"/>
-      <c r="C239" s="41"/>
-      <c r="D239" s="41"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="39"/>
+      <c r="D239" s="39"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="38" t="s">
+      <c r="A241" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B241" s="39"/>
-      <c r="C241" s="39"/>
-      <c r="D241" s="39"/>
+      <c r="B241" s="41"/>
+      <c r="C241" s="41"/>
+      <c r="D241" s="41"/>
     </row>
     <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
@@ -3866,10 +3893,10 @@
       <c r="A246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B246" s="40" t="s">
+      <c r="B246" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C246" s="40" t="s">
+      <c r="C246" s="42" t="s">
         <v>191</v>
       </c>
       <c r="D246" s="34"/>
@@ -3878,37 +3905,37 @@
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B247" s="40"/>
-      <c r="C247" s="40"/>
+      <c r="B247" s="42"/>
+      <c r="C247" s="42"/>
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="41" t="s">
+      <c r="A248" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="41"/>
-      <c r="C248" s="41"/>
-      <c r="D248" s="41"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="39"/>
+      <c r="D248" s="39"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="41"/>
-      <c r="B249" s="41"/>
-      <c r="C249" s="41"/>
-      <c r="D249" s="41"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="39"/>
+      <c r="D249" s="39"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="41"/>
-      <c r="B250" s="41"/>
-      <c r="C250" s="41"/>
-      <c r="D250" s="41"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="39"/>
+      <c r="D250" s="39"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="38" t="s">
+      <c r="A252" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B252" s="39"/>
-      <c r="C252" s="39"/>
-      <c r="D252" s="39"/>
+      <c r="B252" s="41"/>
+      <c r="C252" s="41"/>
+      <c r="D252" s="41"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
@@ -3964,10 +3991,10 @@
       <c r="A257" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B257" s="40" t="s">
+      <c r="B257" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C257" s="40" t="s">
+      <c r="C257" s="42" t="s">
         <v>202</v>
       </c>
       <c r="D257" s="35"/>
@@ -3976,37 +4003,37 @@
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
+      <c r="B258" s="42"/>
+      <c r="C258" s="42"/>
       <c r="D258" s="35"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="41" t="s">
+      <c r="A259" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B259" s="41"/>
-      <c r="C259" s="41"/>
-      <c r="D259" s="41"/>
+      <c r="B259" s="39"/>
+      <c r="C259" s="39"/>
+      <c r="D259" s="39"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="41"/>
-      <c r="B260" s="41"/>
-      <c r="C260" s="41"/>
-      <c r="D260" s="41"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="39"/>
+      <c r="D260" s="39"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="41"/>
-      <c r="B261" s="41"/>
-      <c r="C261" s="41"/>
-      <c r="D261" s="41"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="39"/>
+      <c r="D261" s="39"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="38" t="s">
+      <c r="A263" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
-      <c r="D263" s="39"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="41"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -4065,7 +4092,7 @@
       <c r="B268" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C268" s="40" t="s">
+      <c r="C268" s="42" t="s">
         <v>204</v>
       </c>
       <c r="D268" s="36"/>
@@ -4075,38 +4102,38 @@
         <v>10</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C269" s="40"/>
+        <v>209</v>
+      </c>
+      <c r="C269" s="42"/>
       <c r="D269" s="36"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="41" t="s">
+      <c r="A270" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="41"/>
-      <c r="C270" s="41"/>
-      <c r="D270" s="41"/>
+      <c r="B270" s="39"/>
+      <c r="C270" s="39"/>
+      <c r="D270" s="39"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="41"/>
-      <c r="B271" s="41"/>
-      <c r="C271" s="41"/>
-      <c r="D271" s="41"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
+      <c r="C271" s="39"/>
+      <c r="D271" s="39"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="41"/>
-      <c r="B272" s="41"/>
-      <c r="C272" s="41"/>
-      <c r="D272" s="41"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
+      <c r="C272" s="39"/>
+      <c r="D272" s="39"/>
     </row>
     <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="B274" s="39"/>
-      <c r="C274" s="39"/>
-      <c r="D274" s="39"/>
+      <c r="A274" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B274" s="41"/>
+      <c r="C274" s="41"/>
+      <c r="D274" s="41"/>
     </row>
     <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
@@ -4127,9 +4154,11 @@
         <v>6</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C276" s="37"/>
+        <v>205</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="D276" s="37"/>
     </row>
     <row r="277" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4137,9 +4166,11 @@
         <v>7</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C277" s="37"/>
+        <v>207</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="D277" s="37"/>
     </row>
     <row r="278" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4147,9 +4178,11 @@
         <v>8</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C278" s="37"/>
+        <v>206</v>
+      </c>
+      <c r="C278" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="D278" s="37"/>
     </row>
     <row r="279" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
@@ -4157,9 +4190,11 @@
         <v>9</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C279" s="40"/>
+        <v>208</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="D279" s="37"/>
     </row>
     <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4167,39 +4202,171 @@
         <v>10</v>
       </c>
       <c r="B280" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D280" s="37"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B281" s="39"/>
+      <c r="C281" s="39"/>
+      <c r="D281" s="39"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="39"/>
+      <c r="D282" s="39"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
+      <c r="C283" s="39"/>
+      <c r="D283" s="39"/>
+    </row>
+    <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="C280" s="40"/>
-      <c r="D280" s="37"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281" s="41" t="s">
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
+      <c r="D285" s="41"/>
+    </row>
+    <row r="286" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A287" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C287" s="38"/>
+      <c r="D287" s="38"/>
+    </row>
+    <row r="288" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C288" s="38"/>
+      <c r="D288" s="38"/>
+    </row>
+    <row r="289" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C289" s="38"/>
+      <c r="D289" s="38"/>
+    </row>
+    <row r="290" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="42"/>
+      <c r="D290" s="38"/>
+    </row>
+    <row r="291" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C291" s="42"/>
+      <c r="D291" s="38"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B281" s="41"/>
-      <c r="C281" s="41"/>
-      <c r="D281" s="41"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="41"/>
-      <c r="B282" s="41"/>
-      <c r="C282" s="41"/>
-      <c r="D282" s="41"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="41"/>
-      <c r="B283" s="41"/>
-      <c r="C283" s="41"/>
-      <c r="D283" s="41"/>
+      <c r="B292" s="39"/>
+      <c r="C292" s="39"/>
+      <c r="D292" s="39"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
+      <c r="C293" s="39"/>
+      <c r="D293" s="39"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
+      <c r="C294" s="39"/>
+      <c r="D294" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A281:D283"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="C279:C280"/>
+  <mergeCells count="75">
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="A292:D294"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:D272"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A138:D140"/>
     <mergeCell ref="A142:D142"/>
@@ -4216,42 +4383,14 @@
     <mergeCell ref="A171:D173"/>
     <mergeCell ref="C211:C214"/>
     <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A281:D283"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A274:D274"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D206"/>
     <mergeCell ref="C224:C225"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
     <mergeCell ref="A219:D219"/>
     <mergeCell ref="A226:D228"/>
     <mergeCell ref="A237:D239"/>
@@ -4259,14 +4398,6 @@
     <mergeCell ref="B211:B214"/>
     <mergeCell ref="A230:D230"/>
     <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A270:D272"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="224">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t>优化界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.4、5 第十五周 周一、二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成布料辅料详细信息和列表的前后端的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据录入和我的收藏界面的完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据标签查询设计师列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1069,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,17 +1183,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1527,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290:C291"/>
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1542,12 +1569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -1588,7 +1615,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="42"/>
-      <c r="C7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="42"/>
-      <c r="C8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
@@ -1712,12 +1739,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -1802,24 +1829,24 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
@@ -1906,24 +1933,24 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
@@ -2018,24 +2045,24 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
@@ -2114,24 +2141,24 @@
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
@@ -2210,24 +2237,24 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
@@ -2306,24 +2333,24 @@
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
@@ -2408,24 +2435,24 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
@@ -2502,24 +2529,24 @@
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
@@ -2604,24 +2631,24 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
@@ -2706,24 +2733,24 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
@@ -2810,24 +2837,24 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
@@ -2914,24 +2941,24 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
@@ -3016,24 +3043,24 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="39" t="s">
+      <c r="A149" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
@@ -3118,24 +3145,24 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
@@ -3220,24 +3247,24 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
@@ -3322,24 +3349,24 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39"/>
+      <c r="A184" s="43"/>
+      <c r="B184" s="43"/>
+      <c r="C184" s="43"/>
+      <c r="D184" s="43"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
@@ -3424,24 +3451,24 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="39" t="s">
+      <c r="A193" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="43"/>
+      <c r="D193" s="43"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="39"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
@@ -3526,24 +3553,24 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="39" t="s">
+      <c r="A204" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="43"/>
+      <c r="D204" s="43"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
+      <c r="A205" s="43"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="43"/>
+      <c r="D205" s="43"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
@@ -3583,7 +3610,7 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B211" s="49" t="s">
         <v>168</v>
       </c>
       <c r="C211" s="42" t="s">
@@ -3595,7 +3622,7 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="48"/>
+      <c r="B212" s="49"/>
       <c r="C212" s="42"/>
       <c r="D212" s="31"/>
     </row>
@@ -3603,7 +3630,7 @@
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="48"/>
+      <c r="B213" s="49"/>
       <c r="C213" s="42"/>
       <c r="D213" s="31"/>
     </row>
@@ -3611,29 +3638,29 @@
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="48"/>
+      <c r="B214" s="49"/>
       <c r="C214" s="42"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="39" t="s">
+      <c r="A215" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
-      <c r="D215" s="39"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="39"/>
-      <c r="D216" s="39"/>
+      <c r="A216" s="43"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="43"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
+      <c r="A217" s="43"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
@@ -3714,24 +3741,24 @@
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="39" t="s">
+      <c r="A226" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
+      <c r="B226" s="43"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="43"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="43"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
-      <c r="D228" s="39"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="43"/>
+      <c r="D228" s="43"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A230" s="40" t="s">
@@ -3812,24 +3839,24 @@
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="39" t="s">
+      <c r="A237" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="39"/>
-      <c r="C237" s="39"/>
-      <c r="D237" s="39"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="39"/>
+      <c r="A238" s="43"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="43"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
-      <c r="C239" s="39"/>
-      <c r="D239" s="39"/>
+      <c r="A239" s="43"/>
+      <c r="B239" s="43"/>
+      <c r="C239" s="43"/>
+      <c r="D239" s="43"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A241" s="40" t="s">
@@ -3910,24 +3937,24 @@
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="39" t="s">
+      <c r="A248" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="39"/>
-      <c r="C248" s="39"/>
-      <c r="D248" s="39"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="43"/>
+      <c r="D248" s="43"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
-      <c r="C249" s="39"/>
-      <c r="D249" s="39"/>
+      <c r="A249" s="43"/>
+      <c r="B249" s="43"/>
+      <c r="C249" s="43"/>
+      <c r="D249" s="43"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
-      <c r="C250" s="39"/>
-      <c r="D250" s="39"/>
+      <c r="A250" s="43"/>
+      <c r="B250" s="43"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="43"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A252" s="40" t="s">
@@ -4008,24 +4035,24 @@
       <c r="D258" s="35"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="39" t="s">
+      <c r="A259" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
-      <c r="D259" s="39"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
-      <c r="D260" s="39"/>
+      <c r="A260" s="43"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="43"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
-      <c r="C261" s="39"/>
-      <c r="D261" s="39"/>
+      <c r="A261" s="43"/>
+      <c r="B261" s="43"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A263" s="40" t="s">
@@ -4108,24 +4135,24 @@
       <c r="D269" s="36"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="39" t="s">
+      <c r="A270" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="39"/>
-      <c r="C270" s="39"/>
-      <c r="D270" s="39"/>
+      <c r="B270" s="43"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="43"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="39"/>
-      <c r="B271" s="39"/>
-      <c r="C271" s="39"/>
-      <c r="D271" s="39"/>
+      <c r="A271" s="43"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="39"/>
-      <c r="B272" s="39"/>
-      <c r="C272" s="39"/>
-      <c r="D272" s="39"/>
+      <c r="A272" s="43"/>
+      <c r="B272" s="43"/>
+      <c r="C272" s="43"/>
+      <c r="D272" s="43"/>
     </row>
     <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
@@ -4210,24 +4237,24 @@
       <c r="D280" s="37"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281" s="39" t="s">
+      <c r="A281" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B281" s="39"/>
-      <c r="C281" s="39"/>
-      <c r="D281" s="39"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
-      <c r="C282" s="39"/>
-      <c r="D282" s="39"/>
+      <c r="A282" s="43"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="43"/>
+      <c r="D282" s="43"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="39"/>
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
-      <c r="D283" s="39"/>
+      <c r="A283" s="43"/>
+      <c r="B283" s="43"/>
+      <c r="C283" s="43"/>
+      <c r="D283" s="43"/>
     </row>
     <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A285" s="40" t="s">
@@ -4258,7 +4285,9 @@
       <c r="B287" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C287" s="38"/>
+      <c r="C287" s="38" t="s">
+        <v>218</v>
+      </c>
       <c r="D287" s="38"/>
     </row>
     <row r="288" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4268,7 +4297,9 @@
       <c r="B288" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C288" s="38"/>
+      <c r="C288" s="38" t="s">
+        <v>219</v>
+      </c>
       <c r="D288" s="38"/>
     </row>
     <row r="289" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4278,7 +4309,9 @@
       <c r="B289" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C289" s="38"/>
+      <c r="C289" s="38" t="s">
+        <v>219</v>
+      </c>
       <c r="D289" s="38"/>
     </row>
     <row r="290" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4288,7 +4321,9 @@
       <c r="B290" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C290" s="42"/>
+      <c r="C290" s="42" t="s">
+        <v>219</v>
+      </c>
       <c r="D290" s="38"/>
     </row>
     <row r="291" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4302,71 +4337,135 @@
       <c r="D291" s="38"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A292" s="39" t="s">
+      <c r="A292" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B292" s="39"/>
-      <c r="C292" s="39"/>
-      <c r="D292" s="39"/>
+      <c r="B292" s="43"/>
+      <c r="C292" s="43"/>
+      <c r="D292" s="43"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A293" s="39"/>
-      <c r="B293" s="39"/>
-      <c r="C293" s="39"/>
-      <c r="D293" s="39"/>
+      <c r="A293" s="43"/>
+      <c r="B293" s="43"/>
+      <c r="C293" s="43"/>
+      <c r="D293" s="43"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
-      <c r="C294" s="39"/>
-      <c r="D294" s="39"/>
+      <c r="A294" s="43"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="43"/>
+      <c r="D294" s="43"/>
+    </row>
+    <row r="296" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A296" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B296" s="41"/>
+      <c r="C296" s="41"/>
+      <c r="D296" s="41"/>
+    </row>
+    <row r="297" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A298" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C298" s="39"/>
+      <c r="D298" s="39"/>
+    </row>
+    <row r="299" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C299" s="39"/>
+      <c r="D299" s="39"/>
+    </row>
+    <row r="300" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C300" s="39"/>
+      <c r="D300" s="39"/>
+    </row>
+    <row r="301" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C301" s="42"/>
+      <c r="D301" s="39"/>
+    </row>
+    <row r="302" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="42"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="39"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A303" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B303" s="43"/>
+      <c r="C303" s="43"/>
+      <c r="D303" s="43"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A304" s="43"/>
+      <c r="B304" s="43"/>
+      <c r="C304" s="43"/>
+      <c r="D304" s="43"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305" s="43"/>
+      <c r="B305" s="43"/>
+      <c r="C305" s="43"/>
+      <c r="D305" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="A292:D294"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A270:D272"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
+  <mergeCells count="79">
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="A303:D305"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A193:D195"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A204:D206"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A226:D228"/>
+    <mergeCell ref="A237:D239"/>
+    <mergeCell ref="A215:D217"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="B235:B236"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A138:D140"/>
     <mergeCell ref="A142:D142"/>
@@ -4383,21 +4482,51 @@
     <mergeCell ref="A171:D173"/>
     <mergeCell ref="C211:C214"/>
     <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="A292:D294"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:D272"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
     <mergeCell ref="A281:D283"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A193:D195"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A204:D206"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A226:D228"/>
-    <mergeCell ref="A237:D239"/>
-    <mergeCell ref="A215:D217"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="B235:B236"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第二组/小组计划实施表.xlsx
+++ b/第二组/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="231">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,34 @@
   </si>
   <si>
     <t>根据标签查询设计师列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.6 第十五周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成品牌服装详细信息和列表的前后端的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师作品列表的删除和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据标签查询设计师列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1097,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,6 +1214,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1198,6 +1229,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1212,9 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1554,9 +1585,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
@@ -1569,20 +1600,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1602,10 +1633,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
@@ -1614,49 +1645,49 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1739,20 +1770,20 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -1829,32 +1860,32 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1933,32 +1964,32 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -2045,32 +2076,32 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -2102,7 +2133,7 @@
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -2114,7 +2145,7 @@
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="13" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2155,7 @@
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="13" t="s">
         <v>66</v>
       </c>
@@ -2134,39 +2165,39 @@
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="42"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -2198,7 +2229,7 @@
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -2210,7 +2241,7 @@
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="15" t="s">
         <v>72</v>
       </c>
@@ -2220,7 +2251,7 @@
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="15" t="s">
         <v>72</v>
       </c>
@@ -2230,39 +2261,39 @@
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
     </row>
     <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -2294,7 +2325,7 @@
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="16" t="s">
@@ -2306,7 +2337,7 @@
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="42"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="17" t="s">
         <v>78</v>
       </c>
@@ -2316,7 +2347,7 @@
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="42"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="17" t="s">
         <v>78</v>
       </c>
@@ -2326,39 +2357,39 @@
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -2435,32 +2466,32 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -2483,7 +2514,7 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="42" t="s">
+      <c r="C90" s="43" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="19"/>
@@ -2495,7 +2526,7 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="42"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2505,7 +2536,7 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="42"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -2515,7 +2546,7 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="42"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="19"/>
     </row>
     <row r="94" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2525,36 +2556,36 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="42"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
     </row>
     <row r="97" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -2631,32 +2662,32 @@
       <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2733,32 +2764,32 @@
       <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -2837,32 +2868,32 @@
       <c r="D126" s="23"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="44"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -2941,32 +2972,32 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="40" t="s">
+      <c r="A142" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -3043,32 +3074,32 @@
       <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="43"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="40" t="s">
+      <c r="A153" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
+      <c r="B153" s="42"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -3145,32 +3176,32 @@
       <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+      <c r="A164" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="41"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -3247,32 +3278,32 @@
       <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="43" t="s">
+      <c r="A171" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
-      <c r="D171" s="43"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="43"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="43"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="40" t="s">
+      <c r="A175" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
-      <c r="D175" s="41"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -3349,32 +3380,32 @@
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="43" t="s">
+      <c r="A182" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="43"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="43"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
     </row>
     <row r="186" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="41"/>
-      <c r="C186" s="41"/>
-      <c r="D186" s="41"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -3451,32 +3482,32 @@
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
-      <c r="D193" s="43"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="43"/>
-      <c r="B194" s="43"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="43"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="43"/>
-      <c r="B195" s="43"/>
-      <c r="C195" s="43"/>
-      <c r="D195" s="43"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="44"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="40" t="s">
+      <c r="A197" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B197" s="41"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="41"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3553,32 +3584,32 @@
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="43" t="s">
+      <c r="A204" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="43"/>
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
+      <c r="B204" s="44"/>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="43"/>
-      <c r="B205" s="43"/>
-      <c r="C205" s="43"/>
-      <c r="D205" s="43"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
+      <c r="D205" s="44"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43"/>
-      <c r="C206" s="43"/>
-      <c r="D206" s="43"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="40" t="s">
+      <c r="A208" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="41"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -3610,10 +3641,10 @@
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="49" t="s">
+      <c r="B211" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="42" t="s">
+      <c r="C211" s="43" t="s">
         <v>171</v>
       </c>
       <c r="D211" s="31"/>
@@ -3622,53 +3653,53 @@
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="49"/>
-      <c r="C212" s="42"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="43"/>
       <c r="D212" s="31"/>
     </row>
     <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B213" s="49"/>
-      <c r="C213" s="42"/>
+      <c r="B213" s="45"/>
+      <c r="C213" s="43"/>
       <c r="D213" s="31"/>
     </row>
     <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B214" s="49"/>
-      <c r="C214" s="42"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="43"/>
       <c r="D214" s="31"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="43" t="s">
+      <c r="A215" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B215" s="43"/>
-      <c r="C215" s="43"/>
-      <c r="D215" s="43"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="44"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="43"/>
-      <c r="B216" s="43"/>
-      <c r="C216" s="43"/>
-      <c r="D216" s="43"/>
+      <c r="A216" s="44"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="44"/>
+      <c r="D216" s="44"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="43"/>
-      <c r="B217" s="43"/>
-      <c r="C217" s="43"/>
-      <c r="D217" s="43"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="40" t="s">
+      <c r="A219" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="41"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="41"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="42"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
@@ -3724,10 +3755,10 @@
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="42" t="s">
+      <c r="B224" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C224" s="42" t="s">
+      <c r="C224" s="43" t="s">
         <v>176</v>
       </c>
       <c r="D224" s="32"/>
@@ -3736,37 +3767,37 @@
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B225" s="42"/>
-      <c r="C225" s="42"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
       <c r="D225" s="32"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="43" t="s">
+      <c r="A226" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="43"/>
-      <c r="C226" s="43"/>
-      <c r="D226" s="43"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="44"/>
+      <c r="D226" s="44"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="43"/>
-      <c r="B227" s="43"/>
-      <c r="C227" s="43"/>
-      <c r="D227" s="43"/>
+      <c r="A227" s="44"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="44"/>
+      <c r="D227" s="44"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
-      <c r="C228" s="43"/>
-      <c r="D228" s="43"/>
+      <c r="A228" s="44"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="44"/>
+      <c r="D228" s="44"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="40" t="s">
+      <c r="A230" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B230" s="41"/>
-      <c r="C230" s="41"/>
-      <c r="D230" s="41"/>
+      <c r="B230" s="42"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="42"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
@@ -3822,10 +3853,10 @@
       <c r="A235" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="42" t="s">
+      <c r="B235" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="42" t="s">
+      <c r="C235" s="43" t="s">
         <v>184</v>
       </c>
       <c r="D235" s="33"/>
@@ -3834,37 +3865,37 @@
       <c r="A236" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="42"/>
-      <c r="C236" s="42"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
       <c r="D236" s="33"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="43" t="s">
+      <c r="A237" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B237" s="43"/>
-      <c r="C237" s="43"/>
-      <c r="D237" s="43"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="44"/>
+      <c r="D237" s="44"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="43"/>
-      <c r="B238" s="43"/>
-      <c r="C238" s="43"/>
-      <c r="D238" s="43"/>
+      <c r="A238" s="44"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="44"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="43"/>
-      <c r="B239" s="43"/>
-      <c r="C239" s="43"/>
-      <c r="D239" s="43"/>
+      <c r="A239" s="44"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="44"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="40" t="s">
+      <c r="A241" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="B241" s="41"/>
-      <c r="C241" s="41"/>
-      <c r="D241" s="41"/>
+      <c r="B241" s="42"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="42"/>
     </row>
     <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
@@ -3920,10 +3951,10 @@
       <c r="A246" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B246" s="42" t="s">
+      <c r="B246" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C246" s="42" t="s">
+      <c r="C246" s="43" t="s">
         <v>191</v>
       </c>
       <c r="D246" s="34"/>
@@ -3932,37 +3963,37 @@
       <c r="A247" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B247" s="42"/>
-      <c r="C247" s="42"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="43"/>
       <c r="D247" s="34"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="43"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="44"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="43"/>
-      <c r="B249" s="43"/>
-      <c r="C249" s="43"/>
-      <c r="D249" s="43"/>
+      <c r="A249" s="44"/>
+      <c r="B249" s="44"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="44"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="43"/>
-      <c r="B250" s="43"/>
-      <c r="C250" s="43"/>
-      <c r="D250" s="43"/>
+      <c r="A250" s="44"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="40" t="s">
+      <c r="A252" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B252" s="41"/>
-      <c r="C252" s="41"/>
-      <c r="D252" s="41"/>
+      <c r="B252" s="42"/>
+      <c r="C252" s="42"/>
+      <c r="D252" s="42"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
@@ -4018,10 +4049,10 @@
       <c r="A257" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B257" s="42" t="s">
+      <c r="B257" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C257" s="42" t="s">
+      <c r="C257" s="43" t="s">
         <v>202</v>
       </c>
       <c r="D257" s="35"/>
@@ -4030,37 +4061,37 @@
       <c r="A258" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="42"/>
-      <c r="C258" s="42"/>
+      <c r="B258" s="43"/>
+      <c r="C258" s="43"/>
       <c r="D258" s="35"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="43" t="s">
+      <c r="A259" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B259" s="43"/>
-      <c r="C259" s="43"/>
-      <c r="D259" s="43"/>
+      <c r="B259" s="44"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="44"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="43"/>
-      <c r="B260" s="43"/>
-      <c r="C260" s="43"/>
-      <c r="D260" s="43"/>
+      <c r="A260" s="44"/>
+      <c r="B260" s="44"/>
+      <c r="C260" s="44"/>
+      <c r="D260" s="44"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="43"/>
-      <c r="B261" s="43"/>
-      <c r="C261" s="43"/>
-      <c r="D261" s="43"/>
+      <c r="A261" s="44"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="44"/>
+      <c r="D261" s="44"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="40" t="s">
+      <c r="A263" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="B263" s="41"/>
-      <c r="C263" s="41"/>
-      <c r="D263" s="41"/>
+      <c r="B263" s="42"/>
+      <c r="C263" s="42"/>
+      <c r="D263" s="42"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -4119,7 +4150,7 @@
       <c r="B268" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C268" s="42" t="s">
+      <c r="C268" s="43" t="s">
         <v>204</v>
       </c>
       <c r="D268" s="36"/>
@@ -4131,36 +4162,36 @@
       <c r="B269" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C269" s="42"/>
+      <c r="C269" s="43"/>
       <c r="D269" s="36"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B270" s="43"/>
-      <c r="C270" s="43"/>
-      <c r="D270" s="43"/>
+      <c r="B270" s="44"/>
+      <c r="C270" s="44"/>
+      <c r="D270" s="44"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="43"/>
-      <c r="B271" s="43"/>
-      <c r="C271" s="43"/>
-      <c r="D271" s="43"/>
+      <c r="A271" s="44"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="44"/>
+      <c r="D271" s="44"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="43"/>
-      <c r="B272" s="43"/>
-      <c r="C272" s="43"/>
-      <c r="D272" s="43"/>
+      <c r="A272" s="44"/>
+      <c r="B272" s="44"/>
+      <c r="C272" s="44"/>
+      <c r="D272" s="44"/>
     </row>
     <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="40" t="s">
+      <c r="A274" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B274" s="41"/>
-      <c r="C274" s="41"/>
-      <c r="D274" s="41"/>
+      <c r="B274" s="42"/>
+      <c r="C274" s="42"/>
+      <c r="D274" s="42"/>
     </row>
     <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
@@ -4237,32 +4268,32 @@
       <c r="D280" s="37"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281" s="43" t="s">
+      <c r="A281" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B281" s="43"/>
-      <c r="C281" s="43"/>
-      <c r="D281" s="43"/>
+      <c r="B281" s="44"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="44"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="43"/>
-      <c r="B282" s="43"/>
-      <c r="C282" s="43"/>
-      <c r="D282" s="43"/>
+      <c r="A282" s="44"/>
+      <c r="B282" s="44"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="43"/>
-      <c r="B283" s="43"/>
-      <c r="C283" s="43"/>
-      <c r="D283" s="43"/>
+      <c r="A283" s="44"/>
+      <c r="B283" s="44"/>
+      <c r="C283" s="44"/>
+      <c r="D283" s="44"/>
     </row>
     <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="40" t="s">
+      <c r="A285" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B285" s="41"/>
-      <c r="C285" s="41"/>
-      <c r="D285" s="41"/>
+      <c r="B285" s="42"/>
+      <c r="C285" s="42"/>
+      <c r="D285" s="42"/>
     </row>
     <row r="286" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
@@ -4321,7 +4352,7 @@
       <c r="B290" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C290" s="42" t="s">
+      <c r="C290" s="43" t="s">
         <v>219</v>
       </c>
       <c r="D290" s="38"/>
@@ -4333,36 +4364,36 @@
       <c r="B291" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C291" s="42"/>
+      <c r="C291" s="43"/>
       <c r="D291" s="38"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A292" s="43" t="s">
+      <c r="A292" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B292" s="43"/>
-      <c r="C292" s="43"/>
-      <c r="D292" s="43"/>
+      <c r="B292" s="44"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="44"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A293" s="43"/>
-      <c r="B293" s="43"/>
-      <c r="C293" s="43"/>
-      <c r="D293" s="43"/>
+      <c r="A293" s="44"/>
+      <c r="B293" s="44"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="44"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A294" s="43"/>
-      <c r="B294" s="43"/>
-      <c r="C294" s="43"/>
-      <c r="D294" s="43"/>
+      <c r="A294" s="44"/>
+      <c r="B294" s="44"/>
+      <c r="C294" s="44"/>
+      <c r="D294" s="44"/>
     </row>
     <row r="296" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="40" t="s">
+      <c r="A296" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B296" s="41"/>
-      <c r="C296" s="41"/>
-      <c r="D296" s="41"/>
+      <c r="B296" s="42"/>
+      <c r="C296" s="42"/>
+      <c r="D296" s="42"/>
     </row>
     <row r="297" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
@@ -4385,7 +4416,9 @@
       <c r="B298" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C298" s="39"/>
+      <c r="C298" s="39" t="s">
+        <v>228</v>
+      </c>
       <c r="D298" s="39"/>
     </row>
     <row r="299" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4395,7 +4428,9 @@
       <c r="B299" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C299" s="39"/>
+      <c r="C299" s="39" t="s">
+        <v>228</v>
+      </c>
       <c r="D299" s="39"/>
     </row>
     <row r="300" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4405,49 +4440,210 @@
       <c r="B300" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C300" s="39"/>
+      <c r="C300" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="D300" s="39"/>
     </row>
     <row r="301" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B301" s="42" t="s">
+      <c r="B301" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C301" s="42"/>
+      <c r="C301" s="43" t="s">
+        <v>230</v>
+      </c>
       <c r="D301" s="39"/>
     </row>
     <row r="302" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B302" s="42"/>
-      <c r="C302" s="42"/>
+      <c r="B302" s="43"/>
+      <c r="C302" s="43"/>
       <c r="D302" s="39"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A303" s="43" t="s">
+      <c r="A303" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B303" s="43"/>
-      <c r="C303" s="43"/>
-      <c r="D303" s="43"/>
+      <c r="B303" s="44"/>
+      <c r="C303" s="44"/>
+      <c r="D303" s="44"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A304" s="43"/>
-      <c r="B304" s="43"/>
-      <c r="C304" s="43"/>
-      <c r="D304" s="43"/>
+      <c r="A304" s="44"/>
+      <c r="B304" s="44"/>
+      <c r="C304" s="44"/>
+      <c r="D304" s="44"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A305" s="43"/>
-      <c r="B305" s="43"/>
-      <c r="C305" s="43"/>
-      <c r="D305" s="43"/>
+      <c r="A305" s="44"/>
+      <c r="B305" s="44"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="44"/>
+    </row>
+    <row r="307" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A307" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B307" s="42"/>
+      <c r="C307" s="42"/>
+      <c r="D307" s="42"/>
+    </row>
+    <row r="308" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C309" s="40"/>
+      <c r="D309" s="40"/>
+    </row>
+    <row r="310" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C310" s="40"/>
+      <c r="D310" s="40"/>
+    </row>
+    <row r="311" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C311" s="40"/>
+      <c r="D311" s="40"/>
+    </row>
+    <row r="312" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C312" s="43"/>
+      <c r="D312" s="40"/>
+    </row>
+    <row r="313" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="43"/>
+      <c r="C313" s="43"/>
+      <c r="D313" s="40"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B314" s="44"/>
+      <c r="C314" s="44"/>
+      <c r="D314" s="44"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315" s="44"/>
+      <c r="B315" s="44"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="44"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316" s="44"/>
+      <c r="B316" s="44"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="83">
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="A314:D316"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="A292:D294"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:D272"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="A248:D250"/>
+    <mergeCell ref="A281:D283"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A95:D97"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A85:D87"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A75:D77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:D67"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A127:D129"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A105:D107"/>
+    <mergeCell ref="A259:D261"/>
+    <mergeCell ref="A149:D151"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A182:D184"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A160:D162"/>
+    <mergeCell ref="A171:D173"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A138:D140"/>
+    <mergeCell ref="A142:D142"/>
     <mergeCell ref="A296:D296"/>
     <mergeCell ref="C301:C302"/>
     <mergeCell ref="A303:D305"/>
@@ -4464,69 +4660,6 @@
     <mergeCell ref="A237:D239"/>
     <mergeCell ref="A215:D217"/>
     <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:D140"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A259:D261"/>
-    <mergeCell ref="A149:D151"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A182:D184"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A160:D162"/>
-    <mergeCell ref="A171:D173"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="A127:D129"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D118"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A105:D107"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A95:D97"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A85:D87"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A75:D77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:D67"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A55:D57"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="A292:D294"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A270:D272"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="A248:D250"/>
-    <mergeCell ref="A281:D283"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
